--- a/model_exports/labels/2.0_False_False_2_0.xlsx
+++ b/model_exports/labels/2.0_False_False_2_0.xlsx
@@ -453,37 +453,37 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>t-536414184204800001</t>
+          <t>t-675691648802795522</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>t-536957598252417024</t>
+          <t>t-1025792018793021440</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>t-511851013155090432</t>
+          <t>t-508961106849574912</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -492,24 +492,24 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>t-512006361937616896</t>
+          <t>t-509046359354511360</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>t-512017939579432960</t>
+          <t>t-509083951655174144</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -518,11 +518,11 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>t-561169293573115904</t>
+          <t>t-509100730960314368</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -531,33 +531,33 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>t-610974241895354368</t>
+          <t>t-509131102796414976</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>t-629748063494537216</t>
+          <t>t-509142523403862017</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>t-629757802915848193</t>
+          <t>t-509208349511262208</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -570,24 +570,24 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>t-706805466739949568</t>
+          <t>t-509223264921878528</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>t-833214575512150018</t>
+          <t>t-509224131880300544</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -596,7 +596,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>t-1016827484665499650</t>
+          <t>t-511851013155090432</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -609,11 +609,11 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>t-1016832637904695296</t>
+          <t>t-512006361937616896</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -622,7 +622,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>t-498526651912032258</t>
+          <t>t-512017939579432960</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -635,11 +635,11 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>t-498546619508609024</t>
+          <t>t-571473938481602560</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -648,115 +648,115 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>t-498600191088271361</t>
+          <t>t-688456240490508289</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>t-498638581536399361</t>
+          <t>t-706805466739949568</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>t-498641690949713920</t>
+          <t>t-759240736864870400</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>t-498643083517767681</t>
+          <t>t-887418286014570496</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>t-498648204872015872</t>
+          <t>t-498526651912032258</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>t-501433457286053889</t>
+          <t>t-498546619508609024</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>t-501490224640573440</t>
+          <t>t-498600191088271361</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>t-601392774370340865</t>
+          <t>t-498638581536399361</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>t-641712529677398016</t>
+          <t>t-498641690949713920</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -765,20 +765,20 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>t-686267623462408192</t>
+          <t>t-498643083517767681</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>t-707911328145477632</t>
+          <t>t-498648204872015872</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -791,33 +791,33 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>t-707931200627875840</t>
+          <t>t-573511311906115584</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>t-708036809603698689</t>
+          <t>t-573530576818434048</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>t-708038329514790912</t>
+          <t>t-585505175835648000</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -830,20 +830,20 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>t-708041345638776832</t>
+          <t>t-601392774370340865</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>t-708249950530961408</t>
+          <t>t-608798073561612289</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -856,20 +856,20 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>t-708273072424554497</t>
+          <t>t-641712529677398016</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>t-708363296160747520</t>
+          <t>t-701855843747241986</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -882,7 +882,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>t-708384601509601280</t>
+          <t>t-756508260925075456</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -895,46 +895,46 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>t-708389352393539585</t>
+          <t>t-767329938500308992</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>t-708444180087971840</t>
+          <t>t-771105696226025472</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>t-709190294621835264</t>
+          <t>t-815615714082095105</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>t-709228058117480449</t>
+          <t>t-816012131535613952</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -947,33 +947,33 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>t-709405662791372802</t>
+          <t>t-816043428630839296</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>t-709892861110657024</t>
+          <t>t-816046695377158145</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>t-710265095104946176</t>
+          <t>t-816056629867188225</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -986,7 +986,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>t-738281921046675456</t>
+          <t>t-816367923770118149</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -999,20 +999,20 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>t-738404067647455232</t>
+          <t>t-816380623434592257</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>t-738429326224302080</t>
+          <t>t-858824188815056896</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -1025,7 +1025,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>t-738429350467543044</t>
+          <t>t-859408582407749634</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -1038,20 +1038,20 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>t-756508260925075456</t>
+          <t>t-859423315986874372</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>t-767329938500308992</t>
+          <t>t-859882605604425731</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -1064,7 +1064,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>t-771105696226025472</t>
+          <t>t-865644367372967936</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -1077,7 +1077,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>t-784233737512890376</t>
+          <t>t-866152720700514304</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -1090,7 +1090,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>t-784234780590080001</t>
+          <t>t-867771334083923968</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -1103,33 +1103,33 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>t-815615714082095105</t>
+          <t>t-889549980888969217</t>
         </is>
       </c>
       <c r="B52" t="n">
         <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>t-816012131535613952</t>
+          <t>t-889892042435854336</t>
         </is>
       </c>
       <c r="B53" t="n">
         <v>1</v>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>t-816043428630839296</t>
+          <t>t-890080777769283584</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -1142,37 +1142,37 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>t-816046695377158145</t>
+          <t>t-909776370410168323</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>t-816056629867188225</t>
+          <t>t-910935192742842370</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>t-816367923770118149</t>
+          <t>t-911026776717103105</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C57" t="n">
         <v>1</v>
@@ -1181,46 +1181,46 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>t-816380623434592257</t>
+          <t>t-956711426009202688</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>t-893450286144131072</t>
+          <t>t-985145363618246656</t>
         </is>
       </c>
       <c r="B59" t="n">
         <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>t-894637864561987584</t>
+          <t>t-985306564868354049</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>t-894643508547526657</t>
+          <t>t-1006110887999045632</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -1233,50 +1233,50 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>t-894960674811596800</t>
+          <t>t-1006321460951027717</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>t-894974152540553216</t>
+          <t>t-499691919128018944</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>t-894976401597763584</t>
+          <t>t-812540411746975744</t>
         </is>
       </c>
       <c r="B64" t="n">
         <v>1</v>
       </c>
       <c r="C64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>t-895262760954736640</t>
+          <t>t-832760057259384834</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
@@ -1285,11 +1285,11 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>t-910935192742842370</t>
+          <t>t-832777578633064449</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C66" t="n">
         <v>1</v>
@@ -1298,11 +1298,11 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>t-911026776717103105</t>
+          <t>t-922536592429993985</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
@@ -1311,11 +1311,11 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>t-970872683402539011</t>
+          <t>t-925753092301295616</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
@@ -1324,7 +1324,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>t-973668678867746816</t>
+          <t>t-1012224879310057472</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -1337,37 +1337,37 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>t-973683665661198337</t>
+          <t>t-1024774127687749633</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>t-1006110887999045632</t>
+          <t>t-582884078073987072</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>t-1006321460951027717</t>
+          <t>t-582893069168611328</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C72" t="n">
         <v>1</v>
@@ -1376,7 +1376,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>t-1024388985282383872</t>
+          <t>t-770981711182237696</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -1389,7 +1389,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>t-1028763648074940416</t>
+          <t>t-841634951439220736</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -1402,7 +1402,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>t-1028815266174517249</t>
+          <t>t-976076558824767489</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -1415,46 +1415,46 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>t-1028873828355780608</t>
+          <t>t-989808164907319296</t>
         </is>
       </c>
       <c r="B76" t="n">
         <v>1</v>
       </c>
       <c r="C76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>t-1029034881769197569</t>
+          <t>t-1061557072670670850</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>t-1029100538422587393</t>
+          <t>t-1061559942140780544</t>
         </is>
       </c>
       <c r="B78" t="n">
         <v>1</v>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>t-1052350536111013888</t>
+          <t>t-538858836992331776</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -1467,20 +1467,20 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>t-812540411746975744</t>
+          <t>t-610241505777856512</t>
         </is>
       </c>
       <c r="B80" t="n">
         <v>1</v>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>t-875896081233567744</t>
+          <t>t-610629417715412992</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -1493,11 +1493,11 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>t-507610683022643200</t>
+          <t>t-618483539777093632</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
@@ -1506,46 +1506,46 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>t-694987975168495617</t>
+          <t>t-753345702428827652</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>t-863147106038624256</t>
+          <t>t-753345808620105728</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>t-863168507747454977</t>
+          <t>t-753350269518409728</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>t-503508088964800513</t>
+          <t>t-757940960609173505</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -1558,24 +1558,24 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>t-503608708635844608</t>
+          <t>t-878279115006136321</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>t-533166195508117505</t>
+          <t>t-903265153931608064</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
@@ -1584,50 +1584,50 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>t-538622557084082176</t>
+          <t>t-981152225723604993</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>t-573406774969044992</t>
+          <t>t-593974566453555201</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>t-573566918876995584</t>
+          <t>t-745031440031694848</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>t-574621995633111040</t>
+          <t>t-756129418616139777</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C92" t="n">
         <v>1</v>
@@ -1636,20 +1636,20 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>t-591245619513163777</t>
+          <t>t-824338590389960704</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>t-608562753129840640</t>
+          <t>t-923950718209359874</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -1662,50 +1662,50 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>t-730338940872445952</t>
+          <t>t-923955178688188416</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>t-731342823132274688</t>
+          <t>t-923988304076464128</t>
         </is>
       </c>
       <c r="B96" t="n">
         <v>1</v>
       </c>
       <c r="C96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>t-768798517900906496</t>
+          <t>t-1050075728891535361</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>t-770981711182237696</t>
+          <t>t-1050076017593745408</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
@@ -1714,7 +1714,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>t-841634951439220736</t>
+          <t>t-1050077658590134272</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -1727,11 +1727,11 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>t-950256330316615680</t>
+          <t>t-1050092626786037760</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C100" t="n">
         <v>0</v>
@@ -1740,46 +1740,46 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>t-1010157701769281538</t>
+          <t>t-1050210928594173952</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>t-612750086443917313</t>
+          <t>t-1050446607055896576</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>t-753345702428827652</t>
+          <t>t-1051200746312663040</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>t-753345808620105728</t>
+          <t>t-751267650043387906</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -1792,11 +1792,11 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>t-753350269518409728</t>
+          <t>t-764358428777078784</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C105" t="n">
         <v>0</v>
@@ -1805,37 +1805,37 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>t-858084101320056832</t>
+          <t>t-618395942002102272</t>
         </is>
       </c>
       <c r="B106" t="n">
         <v>1</v>
       </c>
       <c r="C106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>t-858490544007327747</t>
+          <t>t-1027386544536150016</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>t-1006061673487138817</t>
+          <t>t-585851418843615232</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C108" t="n">
         <v>0</v>
@@ -1844,46 +1844,46 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>t-618057796345593856</t>
+          <t>t-626070342885249024</t>
         </is>
       </c>
       <c r="B109" t="n">
         <v>0</v>
       </c>
       <c r="C109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>t-710560200558653440</t>
+          <t>t-927521858815131648</t>
         </is>
       </c>
       <c r="B110" t="n">
         <v>1</v>
       </c>
       <c r="C110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>t-717023541078728704</t>
+          <t>t-1005217349610426371</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>t-767098705790906368</t>
+          <t>t-697866091025080320</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -1896,7 +1896,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>t-908760840886767616</t>
+          <t>t-676490487717625856</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -1909,7 +1909,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>t-962999495893176320</t>
+          <t>t-676517665188507650</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -1922,20 +1922,20 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>t-548325093256884224</t>
+          <t>t-871833381906067459</t>
         </is>
       </c>
       <c r="B115" t="n">
         <v>0</v>
       </c>
       <c r="C115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>t-751267650043387906</t>
+          <t>t-1014948759934066688</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -1948,7 +1948,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>t-768897641946181632</t>
+          <t>t-543357722591514624</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -1961,7 +1961,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>t-768901368044134400</t>
+          <t>t-682141165802631168</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -1974,7 +1974,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>t-580481361141743616</t>
+          <t>t-923100909521068032</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -1987,24 +1987,24 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>t-836993229967015937</t>
+          <t>t-542093659286429696</t>
         </is>
       </c>
       <c r="B120" t="n">
         <v>1</v>
       </c>
       <c r="C120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>t-837317730147713024</t>
+          <t>t-546995440701296643</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C121" t="n">
         <v>0</v>
@@ -2013,7 +2013,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>t-840253641885913088</t>
+          <t>t-782023965489238017</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -2026,7 +2026,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>t-978735824383590400</t>
+          <t>t-758769139905204224</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -2039,33 +2039,33 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>t-981162868749033472</t>
+          <t>t-952138958368051200</t>
         </is>
       </c>
       <c r="B124" t="n">
         <v>1</v>
       </c>
       <c r="C124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>t-981305166392692736</t>
+          <t>t-952754172880863232</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>t-981306180961275904</t>
+          <t>t-1044757925414273025</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -2078,59 +2078,59 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>t-1000477141224558594</t>
+          <t>t-1044770473932816384</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>t-1031705611933831168</t>
+          <t>t-560903834407817217</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>t-950852460532428800</t>
+          <t>t-611996097129619456</t>
         </is>
       </c>
       <c r="B129" t="n">
         <v>0</v>
       </c>
       <c r="C129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>t-986144781721104384</t>
+          <t>t-752638920505131008</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>t-638954151821594624</t>
+          <t>t-863530798334476291</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -2143,20 +2143,20 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>t-639060084857929728</t>
+          <t>t-1062308914354642944</t>
         </is>
       </c>
       <c r="B132" t="n">
         <v>1</v>
       </c>
       <c r="C132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>t-915529742002135041</t>
+          <t>t-575206069833629696</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -2169,7 +2169,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>t-915535227245776896</t>
+          <t>t-604735735154012160</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -2182,7 +2182,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>t-955387095228567552</t>
+          <t>t-736136204106616832</t>
         </is>
       </c>
       <c r="B135" t="n">
@@ -2195,20 +2195,20 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>t-1031843897373278208</t>
+          <t>t-1014543719205400576</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>t-1047112720837951488</t>
+          <t>t-1014578901966876672</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -2221,89 +2221,89 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>t-1047367778901090304</t>
+          <t>t-603598228022501376</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>t-918095751158300672</t>
+          <t>t-720931143055491072</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>t-918096410427486208</t>
+          <t>t-598299676807340033</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>t-918845060900380672</t>
+          <t>t-737748026983354372</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>t-923100909521068032</t>
+          <t>t-737752255571595264</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>t-1020278662699134976</t>
+          <t>t-894558986925744129</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>t-671527403521462276</t>
+          <t>t-986530301030682624</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C144" t="n">
         <v>1</v>
@@ -2312,33 +2312,33 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>t-833840054363619329</t>
+          <t>t-594613009575579649</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>t-952138958368051200</t>
+          <t>t-698546841881853953</t>
         </is>
       </c>
       <c r="B146" t="n">
         <v>1</v>
       </c>
       <c r="C146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>t-952754172880863232</t>
+          <t>t-791266893470568448</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -2351,11 +2351,11 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>t-1044757925414273025</t>
+          <t>t-791268686447378433</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C148" t="n">
         <v>0</v>
@@ -2364,37 +2364,37 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>t-1044770473932816384</t>
+          <t>t-972059634101047296</t>
         </is>
       </c>
       <c r="B149" t="n">
         <v>0</v>
       </c>
       <c r="C149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>t-624161549528096768</t>
+          <t>t-756982430985166848</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>t-692803310668087296</t>
+          <t>t-756983738035077120</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C151" t="n">
         <v>0</v>
@@ -2403,59 +2403,59 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>t-752638920505131008</t>
+          <t>t-757172169029804034</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>t-992180383449014272</t>
+          <t>t-806138760937271296</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>t-992184677086777345</t>
+          <t>t-962803499766513664</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>t-575206069833629696</t>
+          <t>t-1022049211108483072</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>t-602966767602831362</t>
+          <t>t-1022100736476360704</t>
         </is>
       </c>
       <c r="B156" t="n">
@@ -2468,7 +2468,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>t-602969826642898945</t>
+          <t>t-730685047137800192</t>
         </is>
       </c>
       <c r="B157" t="n">
@@ -2481,7 +2481,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>t-603005702697713664</t>
+          <t>t-730687533638619136</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -2494,7 +2494,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>t-707957967094685696</t>
+          <t>t-734825704412446721</t>
         </is>
       </c>
       <c r="B159" t="n">
@@ -2507,46 +2507,46 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>t-821731492581744642</t>
+          <t>t-734826990281187328</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>t-821745652803764226</t>
+          <t>t-872405308236337153</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>t-598299676807340033</t>
+          <t>t-876214781744750592</t>
         </is>
       </c>
       <c r="B162" t="n">
         <v>1</v>
       </c>
       <c r="C162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>t-894558986925744129</t>
+          <t>t-782856010625003521</t>
         </is>
       </c>
       <c r="B163" t="n">
@@ -2559,24 +2559,24 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>t-594613009575579649</t>
+          <t>t-799981773354463232</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>t-696837842702446592</t>
+          <t>t-799998393695305728</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C165" t="n">
         <v>1</v>
@@ -2585,46 +2585,46 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>t-612099863975583744</t>
+          <t>t-800091318642950144</t>
         </is>
       </c>
       <c r="B166" t="n">
         <v>1</v>
       </c>
       <c r="C166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>t-612781430335082496</t>
+          <t>t-829201577370075136</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>t-612783809587580928</t>
+          <t>t-829349939947925504</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>t-759898000407662594</t>
+          <t>t-829364075721326592</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -2637,7 +2637,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>t-782264769742934016</t>
+          <t>t-829412936661815299</t>
         </is>
       </c>
       <c r="B170" t="n">
@@ -2650,7 +2650,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>t-904717770524372993</t>
+          <t>t-888405582352437248</t>
         </is>
       </c>
       <c r="B171" t="n">
@@ -2663,20 +2663,20 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>t-973190028435353600</t>
+          <t>t-1021604631217164289</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>t-1001456003551031296</t>
+          <t>t-1021652512343031808</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -2689,50 +2689,50 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>t-636384018599030785</t>
+          <t>t-1021683870188503041</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>t-715573202714562561</t>
+          <t>t-1021786238024527873</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>t-784477844240011265</t>
+          <t>t-1031076096287105024</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>t-859838431719030785</t>
+          <t>t-692385146725646340</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C177" t="n">
         <v>0</v>
@@ -2741,24 +2741,24 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>t-649543845269667840</t>
+          <t>t-863311681820258304</t>
         </is>
       </c>
       <c r="B178" t="n">
         <v>1</v>
       </c>
       <c r="C178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>t-1006535367464509440</t>
+          <t>t-997483790145589248</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C179" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>t-1006670876169949190</t>
+          <t>t-997521947297710081</t>
         </is>
       </c>
       <c r="B180" t="n">
@@ -2780,46 +2780,46 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>t-883046827251179521</t>
+          <t>t-530194842861580288</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>t-883048887786909698</t>
+          <t>t-601913063172771840</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>t-883064523128791040</t>
+          <t>t-602589391198900226</t>
         </is>
       </c>
       <c r="B183" t="n">
         <v>1</v>
       </c>
       <c r="C183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>t-883077275679432704</t>
+          <t>t-662196453281038336</t>
         </is>
       </c>
       <c r="B184" t="n">
@@ -2832,11 +2832,11 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>t-733452580194410497</t>
+          <t>t-726041703153545216</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C185" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>t-875514382276538369</t>
+          <t>t-726754497737826305</t>
         </is>
       </c>
       <c r="B186" t="n">
@@ -2858,46 +2858,46 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>t-899745107900940288</t>
+          <t>t-735525963610660865</t>
         </is>
       </c>
       <c r="B187" t="n">
         <v>1</v>
       </c>
       <c r="C187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>t-899747204986019844</t>
+          <t>t-736203598091190272</t>
         </is>
       </c>
       <c r="B188" t="n">
         <v>0</v>
       </c>
       <c r="C188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>t-743015826601697281</t>
+          <t>t-870028367990599681</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>t-748127558550560768</t>
+          <t>t-907946100618907648</t>
         </is>
       </c>
       <c r="B190" t="n">
@@ -2910,37 +2910,37 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>t-758205502480388096</t>
+          <t>t-913139045009633280</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>t-758575120290091008</t>
+          <t>t-913178067195088902</t>
         </is>
       </c>
       <c r="B192" t="n">
         <v>1</v>
       </c>
       <c r="C192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>t-864813217943441412</t>
+          <t>t-913438297258708992</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C193" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>t-829201577370075136</t>
+          <t>t-925358435398488064</t>
         </is>
       </c>
       <c r="B194" t="n">
@@ -2962,7 +2962,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>t-829349939947925504</t>
+          <t>t-965598107676430336</t>
         </is>
       </c>
       <c r="B195" t="n">
@@ -2975,7 +2975,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>t-829364075721326592</t>
+          <t>t-978842874749046784</t>
         </is>
       </c>
       <c r="B196" t="n">
@@ -2988,11 +2988,11 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>t-829412936661815299</t>
+          <t>t-979067875213234176</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C197" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>t-1029734360872771584</t>
+          <t>t-998567520113225733</t>
         </is>
       </c>
       <c r="B198" t="n">
@@ -3014,24 +3014,24 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>t-1044637096198041600</t>
+          <t>t-1014570924681687042</t>
         </is>
       </c>
       <c r="B199" t="n">
         <v>0</v>
       </c>
       <c r="C199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>t-1050435927066198018</t>
+          <t>t-1036976718718881793</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C200" t="n">
         <v>0</v>
@@ -3040,33 +3040,33 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>t-1031076096287105024</t>
+          <t>t-1039643454140231684</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>t-863311681820258304</t>
+          <t>t-1039968877537456128</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>t-911670405483651072</t>
+          <t>t-643122505524322304</t>
         </is>
       </c>
       <c r="B203" t="n">
@@ -3079,11 +3079,11 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>t-536338799517634560</t>
+          <t>t-646027426347155456</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C204" t="n">
         <v>0</v>
@@ -3092,11 +3092,11 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>t-601913063172771840</t>
+          <t>t-885230061556813824</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C205" t="n">
         <v>1</v>
@@ -3105,7 +3105,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>t-602589391198900226</t>
+          <t>t-885519574443020288</t>
         </is>
       </c>
       <c r="B206" t="n">
@@ -3118,11 +3118,11 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>t-682987194840150016</t>
+          <t>t-1016850546236542983</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C207" t="n">
         <v>1</v>
@@ -3131,20 +3131,20 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>t-746718356405882880</t>
+          <t>t-1035948096843395073</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>t-752596726066843648</t>
+          <t>t-533830044200599552</t>
         </is>
       </c>
       <c r="B209" t="n">
@@ -3157,24 +3157,24 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>t-753413745230094338</t>
+          <t>t-534294668842766337</t>
         </is>
       </c>
       <c r="B210" t="n">
         <v>1</v>
       </c>
       <c r="C210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>t-794700824404430848</t>
+          <t>t-673774894543470592</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C211" t="n">
         <v>1</v>
@@ -3183,7 +3183,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>t-821459572263100416</t>
+          <t>t-673911765848035328</t>
         </is>
       </c>
       <c r="B212" t="n">
@@ -3196,11 +3196,11 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>t-833578679338942464</t>
+          <t>t-796087988140834817</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C213" t="n">
         <v>1</v>
@@ -3209,11 +3209,11 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>t-858067034772566016</t>
+          <t>t-1050781684117987329</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C214" t="n">
         <v>1</v>
@@ -3222,7 +3222,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>t-858109132586483713</t>
+          <t>t-538650662780022784</t>
         </is>
       </c>
       <c r="B215" t="n">
@@ -3235,50 +3235,50 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>t-870028367990599681</t>
+          <t>t-653152901892739072</t>
         </is>
       </c>
       <c r="B216" t="n">
         <v>0</v>
       </c>
       <c r="C216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>t-992252736560222210</t>
+          <t>t-653993411570192384</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>t-1035669454246563841</t>
+          <t>t-732832771106865153</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>t-1036976718718881793</t>
+          <t>t-755726869270523904</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C219" t="n">
         <v>1</v>
@@ -3287,11 +3287,11 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>t-561309176475824128</t>
+          <t>t-767994872578056192</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C220" t="n">
         <v>1</v>
@@ -3300,11 +3300,11 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>t-578194227852505088</t>
+          <t>t-845940693256286208</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C221" t="n">
         <v>1</v>
@@ -3313,37 +3313,37 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>t-611619605899939841</t>
+          <t>t-856624832292827137</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>t-636611275666128896</t>
+          <t>t-953220290657492992</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>t-967489391517192192</t>
+          <t>t-685265326112559104</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C224" t="n">
         <v>0</v>
@@ -3352,20 +3352,20 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>t-619624637685755904</t>
+          <t>t-741861803148214272</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>t-655463817921626112</t>
+          <t>t-859608993752379392</t>
         </is>
       </c>
       <c r="B226" t="n">
@@ -3378,7 +3378,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>t-836289804664979457</t>
+          <t>t-646786233809539072</t>
         </is>
       </c>
       <c r="B227" t="n">
@@ -3391,50 +3391,50 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>t-605776092780044291</t>
+          <t>t-659041979200880644</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>t-707575261483687937</t>
+          <t>t-684979291696664576</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>t-732832771106865153</t>
+          <t>t-696805827110428676</t>
         </is>
       </c>
       <c r="B230" t="n">
         <v>0</v>
       </c>
       <c r="C230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>t-739781293882347520</t>
+          <t>t-772514094360305664</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C231" t="n">
         <v>0</v>
@@ -3443,20 +3443,20 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>t-757849369496301569</t>
+          <t>t-836430214368481288</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>t-758572772490637312</t>
+          <t>t-698062078922375169</t>
         </is>
       </c>
       <c r="B233" t="n">
@@ -3469,20 +3469,20 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>t-810931684396896256</t>
+          <t>t-560425264807944193</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>t-811056347773026304</t>
+          <t>t-722677158112587776</t>
         </is>
       </c>
       <c r="B235" t="n">
@@ -3495,7 +3495,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>t-811268248448724993</t>
+          <t>t-628489671656517632</t>
         </is>
       </c>
       <c r="B236" t="n">
@@ -3508,20 +3508,20 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>t-972048308909826048</t>
+          <t>t-772934103733788672</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>t-1039508390869786629</t>
+          <t>t-772960588171403264</t>
         </is>
       </c>
       <c r="B238" t="n">
@@ -3534,7 +3534,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>t-1039553624345661440</t>
+          <t>t-773538620472979456</t>
         </is>
       </c>
       <c r="B239" t="n">
@@ -3547,37 +3547,37 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>t-1039619721644191744</t>
+          <t>t-773979956305100800</t>
         </is>
       </c>
       <c r="B240" t="n">
         <v>1</v>
       </c>
       <c r="C240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>t-1052331593933688832</t>
+          <t>t-862378347007025154</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>t-1052814538419003392</t>
+          <t>t-864137650625753088</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C242" t="n">
         <v>0</v>
@@ -3586,20 +3586,20 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>t-1052930779947393024</t>
+          <t>t-864465975068037122</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>t-1052972300667146241</t>
+          <t>t-864657619700658176</t>
         </is>
       </c>
       <c r="B244" t="n">
@@ -3612,7 +3612,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>t-1053005694822207488</t>
+          <t>t-884449137407791104</t>
         </is>
       </c>
       <c r="B245" t="n">
@@ -3625,20 +3625,20 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>t-1053014697077817346</t>
+          <t>t-885109132638003200</t>
         </is>
       </c>
       <c r="B246" t="n">
         <v>1</v>
       </c>
       <c r="C246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>t-1053091674438725632</t>
+          <t>t-885140571232374784</t>
         </is>
       </c>
       <c r="B247" t="n">
@@ -3651,20 +3651,20 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>t-1053211878921568256</t>
+          <t>t-885166687825350662</t>
         </is>
       </c>
       <c r="B248" t="n">
         <v>1</v>
       </c>
       <c r="C248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>t-1053220103070932992</t>
+          <t>t-885188751936417793</t>
         </is>
       </c>
       <c r="B249" t="n">
@@ -3677,7 +3677,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>t-1053451825607774209</t>
+          <t>t-913738686994501632</t>
         </is>
       </c>
       <c r="B250" t="n">
@@ -3690,20 +3690,20 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>t-1053915265375834112</t>
+          <t>t-913756608974540800</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>t-859608993752379392</t>
+          <t>t-913812012400087040</t>
         </is>
       </c>
       <c r="B252" t="n">
@@ -3716,11 +3716,11 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>t-1045126070540865541</t>
+          <t>t-930445521671589888</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C253" t="n">
         <v>1</v>
@@ -3729,24 +3729,24 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>t-659041979200880644</t>
+          <t>t-984138305477505025</t>
         </is>
       </c>
       <c r="B254" t="n">
         <v>0</v>
       </c>
       <c r="C254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>t-726931802141659137</t>
+          <t>t-1049061003617607680</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C255" t="n">
         <v>1</v>
@@ -3755,7 +3755,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>t-772514094360305664</t>
+          <t>t-1049351090909667329</t>
         </is>
       </c>
       <c r="B256" t="n">
@@ -3768,33 +3768,33 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>t-561705902466957314</t>
+          <t>t-1050209065153036288</t>
         </is>
       </c>
       <c r="B257" t="n">
         <v>1</v>
       </c>
       <c r="C257" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>t-570559495811813376</t>
+          <t>t-637980934705422337</t>
         </is>
       </c>
       <c r="B258" t="n">
         <v>1</v>
       </c>
       <c r="C258" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>t-570650767369109504</t>
+          <t>t-645024639639535616</t>
         </is>
       </c>
       <c r="B259" t="n">
@@ -3807,20 +3807,20 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>t-570656230466838528</t>
+          <t>t-648439576441171968</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>t-570659758706962432</t>
+          <t>t-649621017187512320</t>
         </is>
       </c>
       <c r="B261" t="n">
@@ -3833,7 +3833,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>t-570724512095969280</t>
+          <t>t-787849177581649920</t>
         </is>
       </c>
       <c r="B262" t="n">
@@ -3846,33 +3846,33 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>t-570966152807100416</t>
+          <t>t-798356661148655616</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>t-570990183648243712</t>
+          <t>t-798650812511588352</t>
         </is>
       </c>
       <c r="B264" t="n">
         <v>1</v>
       </c>
       <c r="C264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>t-571060362520502272</t>
+          <t>t-900702851202207746</t>
         </is>
       </c>
       <c r="B265" t="n">
@@ -3885,37 +3885,37 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>t-571231922355097600</t>
+          <t>t-1042410099652919297</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>t-571320451407974400</t>
+          <t>t-764130662836084739</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>t-571330597400018944</t>
+          <t>t-763085869045653505</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C268" t="n">
         <v>1</v>
@@ -3924,63 +3924,63 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>t-571345826099941376</t>
+          <t>t-763088808799797248</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>t-571920017329156096</t>
+          <t>t-887004122628710405</t>
         </is>
       </c>
       <c r="B270" t="n">
         <v>0</v>
       </c>
       <c r="C270" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>t-572029056453115906</t>
+          <t>t-887017424306008065</t>
         </is>
       </c>
       <c r="B271" t="n">
         <v>0</v>
       </c>
       <c r="C271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>t-573087826360836097</t>
+          <t>t-893133071528202241</t>
         </is>
       </c>
       <c r="B272" t="n">
         <v>0</v>
       </c>
       <c r="C272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>t-946151169231114241</t>
+          <t>t-1047526401644138497</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C273" t="n">
         <v>1</v>
@@ -3989,11 +3989,11 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>t-581325099023892480</t>
+          <t>t-575443997050691585</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C274" t="n">
         <v>1</v>
@@ -4002,33 +4002,33 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>t-581326319130116096</t>
+          <t>t-821077876112035840</t>
         </is>
       </c>
       <c r="B275" t="n">
         <v>1</v>
       </c>
       <c r="C275" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>t-581406863343779840</t>
+          <t>t-821090113476325376</t>
         </is>
       </c>
       <c r="B276" t="n">
         <v>1</v>
       </c>
       <c r="C276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>t-581587820248109056</t>
+          <t>t-822759706078969856</t>
         </is>
       </c>
       <c r="B277" t="n">
@@ -4041,46 +4041,46 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>t-649689751415599105</t>
+          <t>t-822817083591446532</t>
         </is>
       </c>
       <c r="B278" t="n">
         <v>1</v>
       </c>
       <c r="C278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>t-686490326228402176</t>
+          <t>t-601584910428729344</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>t-687307828932030464</t>
+          <t>t-609930400341725185</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>t-573292412430376960</t>
+          <t>t-609937116462604289</t>
         </is>
       </c>
       <c r="B281" t="n">
@@ -4093,11 +4093,11 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>t-736272987683426305</t>
+          <t>t-640921153591050240</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C282" t="n">
         <v>1</v>
@@ -4106,24 +4106,24 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>t-778893752471543808</t>
+          <t>t-910191038052077569</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>t-778933660334559232</t>
+          <t>t-992231007083421698</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C284" t="n">
         <v>1</v>
@@ -4132,24 +4132,24 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>t-894726430050754561</t>
+          <t>t-992892560405250048</t>
         </is>
       </c>
       <c r="B285" t="n">
         <v>0</v>
       </c>
       <c r="C285" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>t-899250634855251968</t>
+          <t>t-1049725086469685248</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C286" t="n">
         <v>1</v>
@@ -4158,63 +4158,63 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>t-957965473316069376</t>
+          <t>t-612283618052825088</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>t-571264964683436033</t>
+          <t>t-639100384343101440</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C288" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>t-645024639639535616</t>
+          <t>t-634366408906768384</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>t-887375379186548736</t>
+          <t>t-680032445673148416</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>t-897976904019476481</t>
+          <t>t-1039755728448352257</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C291" t="n">
         <v>0</v>
@@ -4223,20 +4223,20 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>t-995839519449640960</t>
+          <t>t-1039888860501688320</t>
         </is>
       </c>
       <c r="B292" t="n">
         <v>1</v>
       </c>
       <c r="C292" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>t-572732322178572288</t>
+          <t>t-643571264011898881</t>
         </is>
       </c>
       <c r="B293" t="n">
@@ -4249,11 +4249,11 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>t-572748274618277888</t>
+          <t>t-1055172080499515392</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C294" t="n">
         <v>1</v>
@@ -4262,7 +4262,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>t-572762505111580673</t>
+          <t>t-1055204302220943368</t>
         </is>
       </c>
       <c r="B295" t="n">
@@ -4275,20 +4275,20 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>t-573486943880638464</t>
+          <t>t-677918822104473600</t>
         </is>
       </c>
       <c r="B296" t="n">
         <v>0</v>
       </c>
       <c r="C296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>t-572808490965733378</t>
+          <t>t-765678719205724160</t>
         </is>
       </c>
       <c r="B297" t="n">
@@ -4301,11 +4301,11 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>t-860196024056414208</t>
+          <t>t-655890642334257152</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C298" t="n">
         <v>1</v>
@@ -4314,33 +4314,33 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>t-1052977443760427009</t>
+          <t>t-659172274482733056</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C299" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>t-609166003570802689</t>
+          <t>t-659184469690175488</t>
         </is>
       </c>
       <c r="B300" t="n">
         <v>1</v>
       </c>
       <c r="C300" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>t-1002347419114311681</t>
+          <t>t-667433104118833152</t>
         </is>
       </c>
       <c r="B301" t="n">
@@ -4353,7 +4353,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>t-821077876112035840</t>
+          <t>t-762366384747589634</t>
         </is>
       </c>
       <c r="B302" t="n">
@@ -4366,20 +4366,20 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>t-821090113476325376</t>
+          <t>t-762414153185173504</t>
         </is>
       </c>
       <c r="B303" t="n">
         <v>1</v>
       </c>
       <c r="C303" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>t-822759706078969856</t>
+          <t>t-762454271832928257</t>
         </is>
       </c>
       <c r="B304" t="n">
@@ -4392,7 +4392,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>t-822817083591446532</t>
+          <t>t-886426015374946304</t>
         </is>
       </c>
       <c r="B305" t="n">
@@ -4405,24 +4405,24 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>t-601384798897115138</t>
+          <t>t-1027575306226475008</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>t-860258475883937792</t>
+          <t>t-1041361257410904064</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C307" t="n">
         <v>1</v>
@@ -4431,50 +4431,50 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>t-878774409280016384</t>
+          <t>t-1041679427464298496</t>
         </is>
       </c>
       <c r="B308" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C308" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>t-975332165528576000</t>
+          <t>t-661127792231321600</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C309" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>t-880261784304631810</t>
+          <t>t-762742863394254850</t>
         </is>
       </c>
       <c r="B310" t="n">
         <v>0</v>
       </c>
       <c r="C310" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>t-1049990926406492160</t>
+          <t>t-910961880700559360</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C311" t="n">
         <v>1</v>
@@ -4483,7 +4483,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>t-629437596280750080</t>
+          <t>t-668278058953084928</t>
         </is>
       </c>
       <c r="B312" t="n">
@@ -4496,7 +4496,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>t-639100384343101440</t>
+          <t>t-803284826191171584</t>
         </is>
       </c>
       <c r="B313" t="n">
@@ -4509,59 +4509,59 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>t-735633517237919744</t>
+          <t>t-976481160363692032</t>
         </is>
       </c>
       <c r="B314" t="n">
         <v>0</v>
       </c>
       <c r="C314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>t-771587937746071552</t>
+          <t>t-1001848606427697153</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>t-1039755728448352257</t>
+          <t>t-685125009120038913</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>t-1039888860501688320</t>
+          <t>t-744360846420107265</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>t-1055172080499515392</t>
+          <t>t-761251305100902400</t>
         </is>
       </c>
       <c r="B318" t="n">
@@ -4574,7 +4574,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>t-1055204302220943368</t>
+          <t>t-1009997647032344576</t>
         </is>
       </c>
       <c r="B319" t="n">
@@ -4587,20 +4587,20 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>t-646070620120215552</t>
+          <t>t-753754552936136704</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>t-646419866795118592</t>
+          <t>t-765596657039708160</t>
         </is>
       </c>
       <c r="B321" t="n">
@@ -4613,20 +4613,20 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>t-676228752599314434</t>
+          <t>t-766010493563568129</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C322" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>t-676234421217845248</t>
+          <t>t-965898424523591681</t>
         </is>
       </c>
       <c r="B323" t="n">
@@ -4639,7 +4639,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>t-676358315065016322</t>
+          <t>t-779066799077851136</t>
         </is>
       </c>
       <c r="B324" t="n">
@@ -4652,20 +4652,20 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>t-677918822104473600</t>
+          <t>t-925465361557975040</t>
         </is>
       </c>
       <c r="B325" t="n">
         <v>0</v>
       </c>
       <c r="C325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>t-876856640372387842</t>
+          <t>t-781155273763192832</t>
         </is>
       </c>
       <c r="B326" t="n">
@@ -4678,33 +4678,33 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>t-910961880700559360</t>
+          <t>t-805294233020231681</t>
         </is>
       </c>
       <c r="B327" t="n">
         <v>1</v>
       </c>
       <c r="C327" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>t-976481160363692032</t>
+          <t>t-805399384150147076</t>
         </is>
       </c>
       <c r="B328" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C328" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>t-679420394223345665</t>
+          <t>t-823317212446556161</t>
         </is>
       </c>
       <c r="B329" t="n">
@@ -4717,20 +4717,20 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>t-736405703838044160</t>
+          <t>t-850470638624133120</t>
         </is>
       </c>
       <c r="B330" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C330" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>t-846003285282697216</t>
+          <t>t-852608222380924929</t>
         </is>
       </c>
       <c r="B331" t="n">
@@ -4743,24 +4743,24 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>t-848401927432019970</t>
+          <t>t-852804949515698178</t>
         </is>
       </c>
       <c r="B332" t="n">
         <v>0</v>
       </c>
       <c r="C332" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>t-939871571342249985</t>
+          <t>t-857651953928744960</t>
         </is>
       </c>
       <c r="B333" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C333" t="n">
         <v>1</v>
@@ -4769,7 +4769,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>t-829844333205413888</t>
+          <t>t-830540407763300352</t>
         </is>
       </c>
       <c r="B334" t="n">
@@ -4782,46 +4782,46 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>t-749466819581411328</t>
+          <t>t-841401006797815808</t>
         </is>
       </c>
       <c r="B335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>t-761251305100902400</t>
+          <t>t-860847907427233792</t>
         </is>
       </c>
       <c r="B336" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C336" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>t-1029396532313968640</t>
+          <t>t-860879398387556352</t>
         </is>
       </c>
       <c r="B337" t="n">
         <v>1</v>
       </c>
       <c r="C337" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>t-1029397392343425024</t>
+          <t>t-902559120888184833</t>
         </is>
       </c>
       <c r="B338" t="n">
@@ -4834,24 +4834,24 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>t-1029408763877498885</t>
+          <t>t-903611928827674624</t>
         </is>
       </c>
       <c r="B339" t="n">
         <v>1</v>
       </c>
       <c r="C339" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>t-1029408838305361921</t>
+          <t>t-1026649986782650369</t>
         </is>
       </c>
       <c r="B340" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C340" t="n">
         <v>0</v>
@@ -4860,11 +4860,11 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>t-1029566349918527488</t>
+          <t>t-1036704309923246081</t>
         </is>
       </c>
       <c r="B341" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C341" t="n">
         <v>0</v>
@@ -4873,7 +4873,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>t-1035527464511053825</t>
+          <t>t-913513656511614977</t>
         </is>
       </c>
       <c r="B342" t="n">
@@ -4886,59 +4886,59 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>t-971386931857772544</t>
+          <t>t-913905079392047105</t>
         </is>
       </c>
       <c r="B343" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C343" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>t-996559091932770305</t>
+          <t>t-1041752836835614720</t>
         </is>
       </c>
       <c r="B344" t="n">
         <v>1</v>
       </c>
       <c r="C344" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>t-915593286122950656</t>
+          <t>t-1042831980822454273</t>
         </is>
       </c>
       <c r="B345" t="n">
         <v>1</v>
       </c>
       <c r="C345" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>t-915603421222309888</t>
+          <t>t-1042864703981084672</t>
         </is>
       </c>
       <c r="B346" t="n">
         <v>1</v>
       </c>
       <c r="C346" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>t-915603564743073792</t>
+          <t>t-1042868533963776005</t>
         </is>
       </c>
       <c r="B347" t="n">
@@ -4951,24 +4951,24 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>t-922899400032178176</t>
+          <t>t-1043255346553389058</t>
         </is>
       </c>
       <c r="B348" t="n">
         <v>1</v>
       </c>
       <c r="C348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>t-922934157185110016</t>
+          <t>t-673357306764140544</t>
         </is>
       </c>
       <c r="B349" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C349" t="n">
         <v>1</v>
@@ -4977,7 +4977,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>t-779013669589884928</t>
+          <t>t-850388688303529986</t>
         </is>
       </c>
       <c r="B350" t="n">
@@ -4990,20 +4990,20 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>t-797647100565716992</t>
+          <t>t-850540226590253057</t>
         </is>
       </c>
       <c r="B351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>t-797655572573143040</t>
+          <t>t-927695512287043584</t>
         </is>
       </c>
       <c r="B352" t="n">
@@ -5016,63 +5016,63 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>t-797814805772046336</t>
+          <t>t-989520576460001280</t>
         </is>
       </c>
       <c r="B353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>t-805294233020231681</t>
+          <t>t-991032269405073408</t>
         </is>
       </c>
       <c r="B354" t="n">
         <v>1</v>
       </c>
       <c r="C354" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>t-805399384150147076</t>
+          <t>t-991077450368061440</t>
         </is>
       </c>
       <c r="B355" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C355" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>t-814469186323939328</t>
+          <t>t-1040961500553388033</t>
         </is>
       </c>
       <c r="B356" t="n">
         <v>0</v>
       </c>
       <c r="C356" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>t-850386711385260034</t>
+          <t>t-519370037812277248</t>
         </is>
       </c>
       <c r="B357" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C357" t="n">
         <v>0</v>
@@ -5081,59 +5081,59 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>t-849301263959420929</t>
+          <t>t-1027253242261069824</t>
         </is>
       </c>
       <c r="B358" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C358" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>t-877327075954245633</t>
+          <t>t-521063203389050882</t>
         </is>
       </c>
       <c r="B359" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C359" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>t-881979226697740288</t>
+          <t>t-521358835361927168</t>
         </is>
       </c>
       <c r="B360" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C360" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>t-882704580865404928</t>
+          <t>t-776037646023925760</t>
         </is>
       </c>
       <c r="B361" t="n">
         <v>1</v>
       </c>
       <c r="C361" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>t-1034597062573211651</t>
+          <t>t-804010972331524096</t>
         </is>
       </c>
       <c r="B362" t="n">
@@ -5146,7 +5146,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>t-894457279076020224</t>
+          <t>t-1051696567651106816</t>
         </is>
       </c>
       <c r="B363" t="n">
@@ -5159,7 +5159,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>t-907371676148670465</t>
+          <t>t-1051874637942947840</t>
         </is>
       </c>
       <c r="B364" t="n">
@@ -5172,37 +5172,37 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>t-519240969838166016</t>
+          <t>t-801681235982557184</t>
         </is>
       </c>
       <c r="B365" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C365" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>t-621860106481762304</t>
+          <t>t-884450764084662272</t>
         </is>
       </c>
       <c r="B366" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C366" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>t-881960500829016064</t>
+          <t>t-884455668140445696</t>
         </is>
       </c>
       <c r="B367" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C367" t="n">
         <v>1</v>
@@ -5211,20 +5211,20 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>t-965605976698126341</t>
+          <t>t-884457897043927040</t>
         </is>
       </c>
       <c r="B368" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C368" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>t-513212132176175105</t>
+          <t>t-884462539458977792</t>
         </is>
       </c>
       <c r="B369" t="n">
@@ -5237,24 +5237,24 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>t-517603456123944960</t>
+          <t>t-909677183328751616</t>
         </is>
       </c>
       <c r="B370" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C370" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>t-517609652138569728</t>
+          <t>t-530728667891380225</t>
         </is>
       </c>
       <c r="B371" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C371" t="n">
         <v>1</v>
@@ -5263,24 +5263,24 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>t-518412519053221888</t>
+          <t>t-595202959648096256</t>
         </is>
       </c>
       <c r="B372" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C372" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>t-519245102263574528</t>
+          <t>t-819866466162012160</t>
         </is>
       </c>
       <c r="B373" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C373" t="n">
         <v>0</v>
@@ -5289,7 +5289,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>t-519387709392314368</t>
+          <t>t-960182659325493248</t>
         </is>
       </c>
       <c r="B374" t="n">
@@ -5302,59 +5302,59 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>t-519393743326441472</t>
+          <t>t-538674754086244353</t>
         </is>
       </c>
       <c r="B375" t="n">
         <v>1</v>
       </c>
       <c r="C375" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>t-519395800687083520</t>
+          <t>t-541965663666184192</t>
         </is>
       </c>
       <c r="B376" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C376" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>t-519401695307390976</t>
+          <t>t-984048304144166912</t>
         </is>
       </c>
       <c r="B377" t="n">
         <v>1</v>
       </c>
       <c r="C377" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>t-538351189679939584</t>
+          <t>t-984354039067529216</t>
         </is>
       </c>
       <c r="B378" t="n">
         <v>1</v>
       </c>
       <c r="C378" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>t-953177789628407808</t>
+          <t>t-1049943076859461632</t>
         </is>
       </c>
       <c r="B379" t="n">
@@ -5367,37 +5367,37 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>t-953520796361744384</t>
+          <t>t-538959622858883072</t>
         </is>
       </c>
       <c r="B380" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C380" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>t-1006187748338864128</t>
+          <t>t-603463396365836289</t>
         </is>
       </c>
       <c r="B381" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C381" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>t-1006198330727247872</t>
+          <t>t-653264904581984256</t>
         </is>
       </c>
       <c r="B382" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C382" t="n">
         <v>1</v>
@@ -5406,24 +5406,24 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>t-1006207380676280320</t>
+          <t>t-653992755027386368</t>
         </is>
       </c>
       <c r="B383" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C383" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>t-1006582449827209216</t>
+          <t>t-677902230650003457</t>
         </is>
       </c>
       <c r="B384" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C384" t="n">
         <v>0</v>
@@ -5432,7 +5432,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>t-517992573227778048</t>
+          <t>t-694507587149111296</t>
         </is>
       </c>
       <c r="B385" t="n">
@@ -5445,20 +5445,20 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>t-589443945773535232</t>
+          <t>t-704942166137806848</t>
         </is>
       </c>
       <c r="B386" t="n">
         <v>0</v>
       </c>
       <c r="C386" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>t-529737265317421056</t>
+          <t>t-704999838627340289</t>
         </is>
       </c>
       <c r="B387" t="n">
@@ -5471,24 +5471,24 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>t-738967171397758976</t>
+          <t>t-705097327791443968</t>
         </is>
       </c>
       <c r="B388" t="n">
         <v>0</v>
       </c>
       <c r="C388" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>t-884450764084662272</t>
+          <t>t-706027191709077505</t>
         </is>
       </c>
       <c r="B389" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C389" t="n">
         <v>1</v>
@@ -5497,11 +5497,11 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>t-884455668140445696</t>
+          <t>t-706161724236423169</t>
         </is>
       </c>
       <c r="B390" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C390" t="n">
         <v>0</v>
@@ -5510,63 +5510,63 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>t-884457897043927040</t>
+          <t>t-706568676607205384</t>
         </is>
       </c>
       <c r="B391" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C391" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>t-884462539458977792</t>
+          <t>t-706777295768461313</t>
         </is>
       </c>
       <c r="B392" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C392" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>t-957544710825967616</t>
+          <t>t-706777701902917632</t>
         </is>
       </c>
       <c r="B393" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C393" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>t-538674754086244353</t>
+          <t>t-706793199285739522</t>
         </is>
       </c>
       <c r="B394" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C394" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>t-541965663666184192</t>
+          <t>t-707823125115879424</t>
         </is>
       </c>
       <c r="B395" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C395" t="n">
         <v>0</v>
@@ -5575,11 +5575,11 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>t-984048304144166912</t>
+          <t>t-707871375474749441</t>
         </is>
       </c>
       <c r="B396" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C396" t="n">
         <v>0</v>
@@ -5588,20 +5588,20 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>t-984354039067529216</t>
+          <t>t-769394896344064001</t>
         </is>
       </c>
       <c r="B397" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C397" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>t-1049943076859461632</t>
+          <t>t-806453539409162240</t>
         </is>
       </c>
       <c r="B398" t="n">
@@ -5614,11 +5614,11 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>t-538736663154135040</t>
+          <t>t-806476961451216896</t>
         </is>
       </c>
       <c r="B399" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C399" t="n">
         <v>0</v>
@@ -5627,20 +5627,20 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>t-540907891566575616</t>
+          <t>t-954338199610019841</t>
         </is>
       </c>
       <c r="B400" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C400" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>t-541174080833978368</t>
+          <t>t-954407598069084160</t>
         </is>
       </c>
       <c r="B401" t="n">
@@ -5653,85 +5653,85 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>t-576412478135005185</t>
+          <t>t-954798702530412546</t>
         </is>
       </c>
       <c r="B402" t="n">
         <v>0</v>
       </c>
       <c r="C402" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>t-591871892283334656</t>
+          <t>t-955111272852414464</t>
         </is>
       </c>
       <c r="B403" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C403" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>t-595190714205634560</t>
+          <t>t-955374632034594816</t>
         </is>
       </c>
       <c r="B404" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C404" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>t-603463396365836289</t>
+          <t>t-955380505121259520</t>
         </is>
       </c>
       <c r="B405" t="n">
         <v>0</v>
       </c>
       <c r="C405" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>t-634983488203177984</t>
+          <t>t-955409675251482624</t>
         </is>
       </c>
       <c r="B406" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C406" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>t-653264904581984256</t>
+          <t>t-955739643634421760</t>
         </is>
       </c>
       <c r="B407" t="n">
         <v>0</v>
       </c>
       <c r="C407" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>t-653992755027386368</t>
+          <t>t-955742558189162496</t>
         </is>
       </c>
       <c r="B408" t="n">
@@ -5744,20 +5744,20 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>t-677902230650003457</t>
+          <t>t-955766281730445313</t>
         </is>
       </c>
       <c r="B409" t="n">
         <v>0</v>
       </c>
       <c r="C409" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>t-694507587149111296</t>
+          <t>t-955807241533304833</t>
         </is>
       </c>
       <c r="B410" t="n">
@@ -5770,37 +5770,37 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>t-704942166137806848</t>
+          <t>t-956101750120857601</t>
         </is>
       </c>
       <c r="B411" t="n">
         <v>0</v>
       </c>
       <c r="C411" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>t-704999838627340289</t>
+          <t>t-956220929067151360</t>
         </is>
       </c>
       <c r="B412" t="n">
         <v>0</v>
       </c>
       <c r="C412" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>t-705097327791443968</t>
+          <t>t-956413340225589248</t>
         </is>
       </c>
       <c r="B413" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C413" t="n">
         <v>1</v>
@@ -5809,63 +5809,63 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>t-706027191709077505</t>
+          <t>t-956438932681523200</t>
         </is>
       </c>
       <c r="B414" t="n">
         <v>0</v>
       </c>
       <c r="C414" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>t-706161724236423169</t>
+          <t>t-956447631714279424</t>
         </is>
       </c>
       <c r="B415" t="n">
         <v>0</v>
       </c>
       <c r="C415" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>t-706568676607205384</t>
+          <t>t-956464588559671297</t>
         </is>
       </c>
       <c r="B416" t="n">
         <v>0</v>
       </c>
       <c r="C416" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>t-706777295768461313</t>
+          <t>t-956513066228834304</t>
         </is>
       </c>
       <c r="B417" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C417" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>t-706777701902917632</t>
+          <t>t-1006399568249008128</t>
         </is>
       </c>
       <c r="B418" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C418" t="n">
         <v>0</v>
@@ -5874,50 +5874,50 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>t-706793199285739522</t>
+          <t>t-1006422910762995712</t>
         </is>
       </c>
       <c r="B419" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C419" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>t-707823125115879424</t>
+          <t>t-1006422931839299584</t>
         </is>
       </c>
       <c r="B420" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C420" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>t-707871375474749441</t>
+          <t>t-1006427045709180929</t>
         </is>
       </c>
       <c r="B421" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C421" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>t-762281733672820736</t>
+          <t>t-1006463635693203456</t>
         </is>
       </c>
       <c r="B422" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C422" t="n">
         <v>1</v>
@@ -5926,20 +5926,20 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>t-894594064582094852</t>
+          <t>t-1008363588552151040</t>
         </is>
       </c>
       <c r="B423" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C423" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>t-977899948724379649</t>
+          <t>t-1024937575906271233</t>
         </is>
       </c>
       <c r="B424" t="n">
@@ -5952,11 +5952,11 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>t-987423120817643520</t>
+          <t>t-549859905231142914</t>
         </is>
       </c>
       <c r="B425" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C425" t="n">
         <v>1</v>
@@ -5965,11 +5965,11 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>t-993438566914101248</t>
+          <t>t-653928809671081984</t>
         </is>
       </c>
       <c r="B426" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C426" t="n">
         <v>1</v>
@@ -5978,7 +5978,7 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>t-1024937575906271233</t>
+          <t>t-750337802257129474</t>
         </is>
       </c>
       <c r="B427" t="n">
@@ -5991,7 +5991,7 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>t-1048194085624995840</t>
+          <t>t-764828802384007168</t>
         </is>
       </c>
       <c r="B428" t="n">
@@ -6004,7 +6004,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>t-1052528388341149696</t>
+          <t>t-1014607937048850434</t>
         </is>
       </c>
       <c r="B429" t="n">
@@ -6017,7 +6017,7 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>t-580823195311276032</t>
+          <t>t-557320938375905282</t>
         </is>
       </c>
       <c r="B430" t="n">
@@ -6030,11 +6030,11 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>t-545381752093806593</t>
+          <t>t-669507403621277696</t>
         </is>
       </c>
       <c r="B431" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C431" t="n">
         <v>0</v>
@@ -6043,7 +6043,7 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>t-549859905231142914</t>
+          <t>t-669900887607898113</t>
         </is>
       </c>
       <c r="B432" t="n">
@@ -6056,33 +6056,33 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>t-552766016325840896</t>
+          <t>t-712150675111727105</t>
         </is>
       </c>
       <c r="B433" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C433" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>t-557320938375905282</t>
+          <t>t-888058781363580930</t>
         </is>
       </c>
       <c r="B434" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C434" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>t-629936150220685312</t>
+          <t>t-958216984176427008</t>
         </is>
       </c>
       <c r="B435" t="n">
@@ -6095,11 +6095,11 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>t-818362228881719296</t>
+          <t>t-565566410605473792</t>
         </is>
       </c>
       <c r="B436" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C436" t="n">
         <v>1</v>
@@ -6108,7 +6108,7 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>t-818369931054030848</t>
+          <t>t-801715561692626944</t>
         </is>
       </c>
       <c r="B437" t="n">
@@ -6121,7 +6121,7 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>t-818390305326137344</t>
+          <t>t-801720307002339328</t>
         </is>
       </c>
       <c r="B438" t="n">
@@ -6134,50 +6134,50 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>t-818474161949601796</t>
+          <t>t-837620098416459776</t>
         </is>
       </c>
       <c r="B439" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C439" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>t-818513625468010496</t>
+          <t>t-962370594363838464</t>
         </is>
       </c>
       <c r="B440" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C440" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>t-818701658280628224</t>
+          <t>t-1050114319227195392</t>
         </is>
       </c>
       <c r="B441" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C441" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>t-818709014498443264</t>
+          <t>t-567369806647951362</t>
         </is>
       </c>
       <c r="B442" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C442" t="n">
         <v>0</v>
@@ -6186,33 +6186,33 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>t-819113813505146880</t>
+          <t>t-567639888489500672</t>
         </is>
       </c>
       <c r="B443" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C443" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>t-996477889779511296</t>
+          <t>t-570990543225950209</t>
         </is>
       </c>
       <c r="B444" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C444" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>t-564785591561506817</t>
+          <t>t-575707186204180480</t>
         </is>
       </c>
       <c r="B445" t="n">
@@ -6225,7 +6225,7 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>t-1034815239219539970</t>
+          <t>t-888068991020929025</t>
         </is>
       </c>
       <c r="B446" t="n">
@@ -6238,20 +6238,20 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>t-1048216558785449986</t>
+          <t>t-720181387190530048</t>
         </is>
       </c>
       <c r="B447" t="n">
         <v>0</v>
       </c>
       <c r="C447" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>t-960782723957870592</t>
+          <t>t-778479315071664128</t>
         </is>
       </c>
       <c r="B448" t="n">
@@ -6264,37 +6264,37 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>t-570990543225950209</t>
+          <t>t-1006487935733174274</t>
         </is>
       </c>
       <c r="B449" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C449" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>t-580368693688999936</t>
+          <t>t-859839256700882944</t>
         </is>
       </c>
       <c r="B450" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C450" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>t-970012076428193796</t>
+          <t>t-860843222091935744</t>
         </is>
       </c>
       <c r="B451" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C451" t="n">
         <v>0</v>
@@ -6303,37 +6303,37 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>t-1006487935733174274</t>
+          <t>t-861496628741640192</t>
         </is>
       </c>
       <c r="B452" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C452" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>t-837336632667877376</t>
+          <t>t-918068732882313216</t>
         </is>
       </c>
       <c r="B453" t="n">
         <v>0</v>
       </c>
       <c r="C453" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>t-1003856366128259073</t>
+          <t>t-1005061843843289088</t>
         </is>
       </c>
       <c r="B454" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C454" t="n">
         <v>0</v>
@@ -6349,26 +6349,26 @@
         <v>0</v>
       </c>
       <c r="C455" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>t-581115572282376192</t>
+          <t>t-591541513768673280</t>
         </is>
       </c>
       <c r="B456" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C456" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>t-590431507967299584</t>
+          <t>t-743692015158726656</t>
         </is>
       </c>
       <c r="B457" t="n">
@@ -6381,50 +6381,50 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>t-592904512131768321</t>
+          <t>t-743726128003588096</t>
         </is>
       </c>
       <c r="B458" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C458" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>t-594811114661228544</t>
+          <t>t-612970627083968512</t>
         </is>
       </c>
       <c r="B459" t="n">
         <v>0</v>
       </c>
       <c r="C459" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>t-595126127343116288</t>
+          <t>t-892583343426072576</t>
         </is>
       </c>
       <c r="B460" t="n">
         <v>0</v>
       </c>
       <c r="C460" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>t-949260261575229441</t>
+          <t>t-877183876254269441</t>
         </is>
       </c>
       <c r="B461" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C461" t="n">
         <v>1</v>
@@ -6433,37 +6433,37 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>t-955871714914766849</t>
+          <t>t-877213422538158080</t>
         </is>
       </c>
       <c r="B462" t="n">
         <v>1</v>
       </c>
       <c r="C462" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>t-968152808062160896</t>
+          <t>t-608689054549471232</t>
         </is>
       </c>
       <c r="B463" t="n">
         <v>1</v>
       </c>
       <c r="C463" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>t-608642817427156992</t>
+          <t>t-610036486059200513</t>
         </is>
       </c>
       <c r="B464" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C464" t="n">
         <v>1</v>
@@ -6472,50 +6472,50 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>t-608689054549471232</t>
+          <t>t-880840050245849088</t>
         </is>
       </c>
       <c r="B465" t="n">
         <v>1</v>
       </c>
       <c r="C465" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>t-608880570362437632</t>
+          <t>t-615666964451606528</t>
         </is>
       </c>
       <c r="B466" t="n">
         <v>1</v>
       </c>
       <c r="C466" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>t-880840050245849088</t>
+          <t>t-615728570888003584</t>
         </is>
       </c>
       <c r="B467" t="n">
         <v>1</v>
       </c>
       <c r="C467" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>t-916986223478140928</t>
+          <t>t-618340855657721856</t>
         </is>
       </c>
       <c r="B468" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C468" t="n">
         <v>1</v>
@@ -6524,20 +6524,20 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>t-615666964451606528</t>
+          <t>t-884366275937521664</t>
         </is>
       </c>
       <c r="B469" t="n">
         <v>1</v>
       </c>
       <c r="C469" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>t-615728570888003584</t>
+          <t>t-631869539597336576</t>
         </is>
       </c>
       <c r="B470" t="n">
@@ -6550,24 +6550,24 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>t-760350969154723840</t>
+          <t>t-632875946828255232</t>
         </is>
       </c>
       <c r="B471" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C471" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>t-1008697922366689285</t>
+          <t>t-899696948046856192</t>
         </is>
       </c>
       <c r="B472" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C472" t="n">
         <v>0</v>
@@ -6576,20 +6576,20 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>t-642781966346010625</t>
+          <t>t-1013800752567996416</t>
         </is>
       </c>
       <c r="B473" t="n">
         <v>1</v>
       </c>
       <c r="C473" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>t-643095780228771840</t>
+          <t>t-1035170375703961601</t>
         </is>
       </c>
       <c r="B474" t="n">
@@ -6602,7 +6602,7 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>t-643795122480631808</t>
+          <t>t-1035201829989056512</t>
         </is>
       </c>
       <c r="B475" t="n">
@@ -6615,46 +6615,46 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>t-652058053697765376</t>
+          <t>t-1035614467998998530</t>
         </is>
       </c>
       <c r="B476" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C476" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>t-653076415596888064</t>
+          <t>t-1038016191711928321</t>
         </is>
       </c>
       <c r="B477" t="n">
         <v>1</v>
       </c>
       <c r="C477" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>t-661463139213565952</t>
+          <t>t-1038359113791680512</t>
         </is>
       </c>
       <c r="B478" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C478" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>t-669879511748579329</t>
+          <t>t-642781966346010625</t>
         </is>
       </c>
       <c r="B479" t="n">
@@ -6667,7 +6667,7 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>t-670195512713330689</t>
+          <t>t-643095780228771840</t>
         </is>
       </c>
       <c r="B480" t="n">
@@ -6680,24 +6680,24 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>t-1005827335977885696</t>
+          <t>t-643795122480631808</t>
         </is>
       </c>
       <c r="B481" t="n">
         <v>1</v>
       </c>
       <c r="C481" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>t-674905913438769153</t>
+          <t>t-643112220348534784</t>
         </is>
       </c>
       <c r="B482" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C482" t="n">
         <v>0</v>
@@ -6706,7 +6706,7 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>t-703191098403872769</t>
+          <t>t-656425382145597440</t>
         </is>
       </c>
       <c r="B483" t="n">
@@ -6719,11 +6719,11 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>t-703191473269780480</t>
+          <t>t-661463139213565952</t>
         </is>
       </c>
       <c r="B484" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C484" t="n">
         <v>0</v>
@@ -6732,37 +6732,37 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>t-703218090671214592</t>
+          <t>t-723039191961985026</t>
         </is>
       </c>
       <c r="B485" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C485" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>t-703248568765779969</t>
+          <t>t-910016271554576384</t>
         </is>
       </c>
       <c r="B486" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C486" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>t-703357904250757120</t>
+          <t>t-1004612435792232448</t>
         </is>
       </c>
       <c r="B487" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C487" t="n">
         <v>0</v>
@@ -6771,7 +6771,7 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>t-703380366254612480</t>
+          <t>t-666556746308198401</t>
         </is>
       </c>
       <c r="B488" t="n">
@@ -6784,20 +6784,20 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>t-703605156500381696</t>
+          <t>t-1005827335977885696</t>
         </is>
       </c>
       <c r="B489" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C489" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>t-704826129178370050</t>
+          <t>t-695507166833184769</t>
         </is>
       </c>
       <c r="B490" t="n">
@@ -6810,11 +6810,11 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>t-708088836748910592</t>
+          <t>t-704826129178370050</t>
         </is>
       </c>
       <c r="B491" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C491" t="n">
         <v>1</v>
@@ -6823,14 +6823,14 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>t-715202576552169472</t>
+          <t>t-715965241637470208</t>
         </is>
       </c>
       <c r="B492" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C492" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493">
@@ -6849,37 +6849,37 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>t-852243165302198273</t>
+          <t>t-730493187534413824</t>
         </is>
       </c>
       <c r="B494" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C494" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>t-956932857389309953</t>
+          <t>t-730679314916757504</t>
         </is>
       </c>
       <c r="B495" t="n">
         <v>1</v>
       </c>
       <c r="C495" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>t-957576777848717312</t>
+          <t>t-741709377703411712</t>
         </is>
       </c>
       <c r="B496" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C496" t="n">
         <v>1</v>
@@ -6888,20 +6888,20 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>t-741709377703411712</t>
+          <t>t-953202460994232320</t>
         </is>
       </c>
       <c r="B497" t="n">
         <v>0</v>
       </c>
       <c r="C497" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>t-953202460994232320</t>
+          <t>t-953212881809518592</t>
         </is>
       </c>
       <c r="B498" t="n">
@@ -6914,7 +6914,7 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>t-953212881809518592</t>
+          <t>t-751418791951790080</t>
         </is>
       </c>
       <c r="B499" t="n">
@@ -6927,7 +6927,7 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>t-737558350011867138</t>
+          <t>t-737663862317682689</t>
         </is>
       </c>
       <c r="B500" t="n">
@@ -6940,7 +6940,7 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>t-738417908926320643</t>
+          <t>t-737736248970911744</t>
         </is>
       </c>
       <c r="B501" t="n">
@@ -6953,20 +6953,20 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>t-738664460173381632</t>
+          <t>t-743471999876472833</t>
         </is>
       </c>
       <c r="B502" t="n">
         <v>1</v>
       </c>
       <c r="C502" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>t-963803678573547520</t>
+          <t>t-1003603539539742720</t>
         </is>
       </c>
       <c r="B503" t="n">
@@ -6979,11 +6979,11 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>t-884308996835991554</t>
+          <t>t-738019407536984064</t>
         </is>
       </c>
       <c r="B504" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C504" t="n">
         <v>0</v>
@@ -6992,46 +6992,46 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>t-933719239126642689</t>
+          <t>t-738062401308917760</t>
         </is>
       </c>
       <c r="B505" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C505" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>t-738019407536984064</t>
+          <t>t-738968020773703680</t>
         </is>
       </c>
       <c r="B506" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C506" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>t-738062401308917760</t>
+          <t>t-739102239302770689</t>
         </is>
       </c>
       <c r="B507" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C507" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>t-738968020773703680</t>
+          <t>t-739132972742418432</t>
         </is>
       </c>
       <c r="B508" t="n">
@@ -7044,20 +7044,20 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>t-739102239302770689</t>
+          <t>t-739365982360178688</t>
         </is>
       </c>
       <c r="B509" t="n">
         <v>1</v>
       </c>
       <c r="C509" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>t-739132972742418432</t>
+          <t>t-739454625393324032</t>
         </is>
       </c>
       <c r="B510" t="n">
@@ -7070,20 +7070,20 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>t-739365982360178688</t>
+          <t>t-956876178509516800</t>
         </is>
       </c>
       <c r="B511" t="n">
         <v>1</v>
       </c>
       <c r="C511" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>t-739454625393324032</t>
+          <t>t-958391208602193920</t>
         </is>
       </c>
       <c r="B512" t="n">
@@ -7096,24 +7096,24 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>t-949338992599883776</t>
+          <t>t-1006391548668514309</t>
         </is>
       </c>
       <c r="B513" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C513" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>t-949550500269166593</t>
+          <t>t-1006459221448318981</t>
         </is>
       </c>
       <c r="B514" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C514" t="n">
         <v>1</v>
@@ -7122,7 +7122,7 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>t-1006391548668514309</t>
+          <t>t-739230360207261700</t>
         </is>
       </c>
       <c r="B515" t="n">
@@ -7135,7 +7135,7 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>t-1006459221448318981</t>
+          <t>t-740264154712449024</t>
         </is>
       </c>
       <c r="B516" t="n">
@@ -7148,20 +7148,20 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>t-738250548865032192</t>
+          <t>t-1002274254954647552</t>
         </is>
       </c>
       <c r="B517" t="n">
         <v>1</v>
       </c>
       <c r="C517" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>t-738751926372827136</t>
+          <t>t-1002283218085863430</t>
         </is>
       </c>
       <c r="B518" t="n">
@@ -7174,33 +7174,33 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>t-738762935133188098</t>
+          <t>t-740256345773985793</t>
         </is>
       </c>
       <c r="B519" t="n">
         <v>1</v>
       </c>
       <c r="C519" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>t-897405884489506816</t>
+          <t>t-743384229497679872</t>
         </is>
       </c>
       <c r="B520" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C520" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>t-740517137236647936</t>
+          <t>t-743816866171326464</t>
         </is>
       </c>
       <c r="B521" t="n">
@@ -7213,33 +7213,33 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>t-741525012784553985</t>
+          <t>t-952704809529851906</t>
         </is>
       </c>
       <c r="B522" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C522" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>t-743384229497679872</t>
+          <t>t-1041726034662633472</t>
         </is>
       </c>
       <c r="B523" t="n">
         <v>0</v>
       </c>
       <c r="C523" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>t-743445326611251200</t>
+          <t>t-760154379307458560</t>
         </is>
       </c>
       <c r="B524" t="n">
@@ -7252,7 +7252,7 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>t-746386418465914880</t>
+          <t>t-760176866099601408</t>
         </is>
       </c>
       <c r="B525" t="n">
@@ -7265,20 +7265,20 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>t-755694559401762816</t>
+          <t>t-760420119554076674</t>
         </is>
       </c>
       <c r="B526" t="n">
         <v>1</v>
       </c>
       <c r="C526" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>t-760176866099601408</t>
+          <t>t-775906484295204864</t>
         </is>
       </c>
       <c r="B527" t="n">
@@ -7291,33 +7291,33 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>t-760420119554076674</t>
+          <t>t-793504441022504960</t>
         </is>
       </c>
       <c r="B528" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C528" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>t-766238666905747456</t>
+          <t>t-806105457077186561</t>
         </is>
       </c>
       <c r="B529" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C529" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>t-834802174559412225</t>
+          <t>t-806175022247280641</t>
         </is>
       </c>
       <c r="B530" t="n">
@@ -7330,50 +7330,50 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>t-960991499604328448</t>
+          <t>t-806834354802438144</t>
         </is>
       </c>
       <c r="B531" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C531" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>t-834314501134614528</t>
+          <t>t-952289558770651136</t>
         </is>
       </c>
       <c r="B532" t="n">
         <v>1</v>
       </c>
       <c r="C532" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>t-834984907881525249</t>
+          <t>t-952536637413584897</t>
         </is>
       </c>
       <c r="B533" t="n">
         <v>1</v>
       </c>
       <c r="C533" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>t-836581914320506880</t>
+          <t>t-952649290148704259</t>
         </is>
       </c>
       <c r="B534" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C534" t="n">
         <v>1</v>
@@ -7382,7 +7382,7 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>t-854059785049788419</t>
+          <t>t-952989314534617088</t>
         </is>
       </c>
       <c r="B535" t="n">
@@ -7395,11 +7395,11 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>t-1002130830792241153</t>
+          <t>t-854059785049788419</t>
         </is>
       </c>
       <c r="B536" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C536" t="n">
         <v>1</v>
@@ -7408,11 +7408,11 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>t-886643817893560320</t>
+          <t>t-883552231022366723</t>
         </is>
       </c>
       <c r="B537" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C537" t="n">
         <v>1</v>
@@ -7421,11 +7421,11 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>t-970932114597335040</t>
+          <t>t-890626982773481473</t>
         </is>
       </c>
       <c r="B538" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C538" t="n">
         <v>0</v>
@@ -7434,7 +7434,7 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>t-913806353851969537</t>
+          <t>t-887813365304705024</t>
         </is>
       </c>
       <c r="B539" t="n">
@@ -7447,20 +7447,20 @@
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>t-948508791448002560</t>
+          <t>t-970932114597335040</t>
         </is>
       </c>
       <c r="B540" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C540" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>t-1003312973887270917</t>
+          <t>t-938446444700237824</t>
         </is>
       </c>
       <c r="B541" t="n">
@@ -7473,7 +7473,7 @@
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>t-1003367321245798400</t>
+          <t>t-948508791448002560</t>
         </is>
       </c>
       <c r="B542" t="n">
@@ -7486,7 +7486,7 @@
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>t-1003369104735113216</t>
+          <t>t-1003312973887270917</t>
         </is>
       </c>
       <c r="B543" t="n">
@@ -7499,20 +7499,20 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>t-1003387066909167617</t>
+          <t>t-1003367321245798400</t>
         </is>
       </c>
       <c r="B544" t="n">
         <v>1</v>
       </c>
       <c r="C544" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>t-1003393307597312000</t>
+          <t>t-1003369104735113216</t>
         </is>
       </c>
       <c r="B545" t="n">
@@ -7525,46 +7525,46 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>t-1003471542783823872</t>
+          <t>t-1003387066909167617</t>
         </is>
       </c>
       <c r="B546" t="n">
         <v>1</v>
       </c>
       <c r="C546" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>t-1003531171559628800</t>
+          <t>t-1003393307597312000</t>
         </is>
       </c>
       <c r="B547" t="n">
         <v>1</v>
       </c>
       <c r="C547" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>t-1003538396285947905</t>
+          <t>t-1003471542783823872</t>
         </is>
       </c>
       <c r="B548" t="n">
         <v>1</v>
       </c>
       <c r="C548" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>t-1003544511115603973</t>
+          <t>t-1003531171559628800</t>
         </is>
       </c>
       <c r="B549" t="n">
@@ -7577,7 +7577,7 @@
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>t-1003657726029975553</t>
+          <t>t-1003538396285947905</t>
         </is>
       </c>
       <c r="B550" t="n">
@@ -7590,20 +7590,20 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>t-1003966949058056192</t>
+          <t>t-1003544511115603973</t>
         </is>
       </c>
       <c r="B551" t="n">
         <v>1</v>
       </c>
       <c r="C551" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>t-949999091047477249</t>
+          <t>t-1003657726029975553</t>
         </is>
       </c>
       <c r="B552" t="n">
@@ -7616,37 +7616,37 @@
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>t-958848005502681088</t>
+          <t>t-1003966949058056192</t>
         </is>
       </c>
       <c r="B553" t="n">
         <v>1</v>
       </c>
       <c r="C553" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>t-959068004729475072</t>
+          <t>t-955559981331419136</t>
         </is>
       </c>
       <c r="B554" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C554" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>t-1004723222363955200</t>
+          <t>t-988323500330045442</t>
         </is>
       </c>
       <c r="B555" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C555" t="n">
         <v>0</v>
@@ -7655,7 +7655,7 @@
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>t-1017566472292495360</t>
+          <t>t-1003736255149027328</t>
         </is>
       </c>
       <c r="B556" t="n">
@@ -7668,7 +7668,7 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>t-1030184521969410055</t>
+          <t>t-1004723222363955200</t>
         </is>
       </c>
       <c r="B557" t="n">
@@ -7681,11 +7681,11 @@
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>t-495525926722367488</t>
+          <t>t-1030184521969410055</t>
         </is>
       </c>
       <c r="B558" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C558" t="n">
         <v>0</v>
@@ -7694,11 +7694,11 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>t-675498810152325120</t>
+          <t>t-494327833263874048</t>
         </is>
       </c>
       <c r="B559" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C559" t="n">
         <v>1</v>
@@ -7707,7 +7707,7 @@
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>t-676725475671085057</t>
+          <t>t-904503608246362112</t>
         </is>
       </c>
       <c r="B560" t="n">
@@ -7720,7 +7720,7 @@
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>t-786169556586770432</t>
+          <t>t-629559315221737472</t>
         </is>
       </c>
       <c r="B561" t="n">
@@ -7733,63 +7733,63 @@
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>t-500549350234554368</t>
+          <t>t-645961089671405568</t>
         </is>
       </c>
       <c r="B562" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C562" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>t-529938272265703424</t>
+          <t>t-697436431816355840</t>
         </is>
       </c>
       <c r="B563" t="n">
         <v>0</v>
       </c>
       <c r="C563" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>t-572446866039697408</t>
+          <t>t-697627864380809216</t>
         </is>
       </c>
       <c r="B564" t="n">
         <v>0</v>
       </c>
       <c r="C564" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>t-579789832131575808</t>
+          <t>t-698371050527023104</t>
         </is>
       </c>
       <c r="B565" t="n">
         <v>0</v>
       </c>
       <c r="C565" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>t-580874616324943872</t>
+          <t>t-698770244375093249</t>
         </is>
       </c>
       <c r="B566" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C566" t="n">
         <v>0</v>
@@ -7798,24 +7798,24 @@
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>t-620843348505432064</t>
+          <t>t-815395045314560000</t>
         </is>
       </c>
       <c r="B567" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C567" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>t-629559315221737472</t>
+          <t>t-815855888129028096</t>
         </is>
       </c>
       <c r="B568" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C568" t="n">
         <v>0</v>
@@ -7824,7 +7824,7 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>t-648493309824925696</t>
+          <t>t-815865821570289668</t>
         </is>
       </c>
       <c r="B569" t="n">
@@ -7837,24 +7837,24 @@
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>t-658803849289990144</t>
+          <t>t-815882427159678976</t>
         </is>
       </c>
       <c r="B570" t="n">
         <v>1</v>
       </c>
       <c r="C570" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>t-659014102774325248</t>
+          <t>t-815960345336545280</t>
         </is>
       </c>
       <c r="B571" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C571" t="n">
         <v>1</v>
@@ -7863,20 +7863,20 @@
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>t-674391856298385408</t>
+          <t>t-816280699388841984</t>
         </is>
       </c>
       <c r="B572" t="n">
         <v>1</v>
       </c>
       <c r="C572" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>t-674458539629219844</t>
+          <t>t-823528889578377221</t>
         </is>
       </c>
       <c r="B573" t="n">
@@ -7889,7 +7889,7 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>t-711861360414433281</t>
+          <t>t-823565116511617024</t>
         </is>
       </c>
       <c r="B574" t="n">
@@ -7902,7 +7902,7 @@
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>t-711871478451417088</t>
+          <t>t-823567614731382784</t>
         </is>
       </c>
       <c r="B575" t="n">
@@ -7915,7 +7915,7 @@
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>t-711899328244113408</t>
+          <t>t-823729659921760256</t>
         </is>
       </c>
       <c r="B576" t="n">
@@ -7928,24 +7928,24 @@
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>t-712616490994892801</t>
+          <t>t-823776797145763840</t>
         </is>
       </c>
       <c r="B577" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C577" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>t-719019371499130881</t>
+          <t>t-823797969539338240</t>
         </is>
       </c>
       <c r="B578" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C578" t="n">
         <v>0</v>
@@ -7954,20 +7954,20 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>t-788186519307563010</t>
+          <t>t-824162412861464576</t>
         </is>
       </c>
       <c r="B579" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C579" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>t-790900222368976896</t>
+          <t>t-824171170761162752</t>
         </is>
       </c>
       <c r="B580" t="n">
@@ -7980,7 +7980,7 @@
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>t-790909371781746688</t>
+          <t>t-824209269432012802</t>
         </is>
       </c>
       <c r="B581" t="n">
@@ -7993,7 +7993,7 @@
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>t-791594802844434434</t>
+          <t>t-824256850644176897</t>
         </is>
       </c>
       <c r="B582" t="n">
@@ -8006,33 +8006,33 @@
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>t-814010823689408512</t>
+          <t>t-824424167730655233</t>
         </is>
       </c>
       <c r="B583" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C583" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>t-815395045314560000</t>
+          <t>t-824425957838581760</t>
         </is>
       </c>
       <c r="B584" t="n">
         <v>1</v>
       </c>
       <c r="C584" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>t-815855888129028096</t>
+          <t>t-824537640233889792</t>
         </is>
       </c>
       <c r="B585" t="n">
@@ -8045,7 +8045,7 @@
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>t-815865821570289668</t>
+          <t>t-824596362859667456</t>
         </is>
       </c>
       <c r="B586" t="n">
@@ -8058,7 +8058,7 @@
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>t-815882427159678976</t>
+          <t>t-824596669597569025</t>
         </is>
       </c>
       <c r="B587" t="n">
@@ -8071,7 +8071,7 @@
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>t-815960345336545280</t>
+          <t>t-824814008108593152</t>
         </is>
       </c>
       <c r="B588" t="n">
@@ -8084,20 +8084,20 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>t-816280699388841984</t>
+          <t>t-824990518815842304</t>
         </is>
       </c>
       <c r="B589" t="n">
         <v>1</v>
       </c>
       <c r="C589" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>t-823528889578377221</t>
+          <t>t-825140161293934594</t>
         </is>
       </c>
       <c r="B590" t="n">
@@ -8110,20 +8110,20 @@
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>t-823565116511617024</t>
+          <t>t-825322589002149888</t>
         </is>
       </c>
       <c r="B591" t="n">
         <v>1</v>
       </c>
       <c r="C591" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>t-823567614731382784</t>
+          <t>t-825486203914842112</t>
         </is>
       </c>
       <c r="B592" t="n">
@@ -8136,20 +8136,20 @@
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>t-823729659921760256</t>
+          <t>t-935721877053505536</t>
         </is>
       </c>
       <c r="B593" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C593" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>t-823776797145763840</t>
+          <t>t-940565575226372102</t>
         </is>
       </c>
       <c r="B594" t="n">
@@ -8162,24 +8162,24 @@
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>t-823797969539338240</t>
+          <t>t-940637216757477377</t>
         </is>
       </c>
       <c r="B595" t="n">
         <v>1</v>
       </c>
       <c r="C595" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>t-824162412861464576</t>
+          <t>t-970475324591915008</t>
         </is>
       </c>
       <c r="B596" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C596" t="n">
         <v>0</v>
@@ -8188,20 +8188,20 @@
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>t-824171170761162752</t>
+          <t>t-1031392016255647744</t>
         </is>
       </c>
       <c r="B597" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C597" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>t-824209269432012802</t>
+          <t>t-520490218210594817</t>
         </is>
       </c>
       <c r="B598" t="n">
@@ -8214,7 +8214,7 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>t-824256850644176897</t>
+          <t>t-706517570451427328</t>
         </is>
       </c>
       <c r="B599" t="n">
@@ -8227,11 +8227,11 @@
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>t-824424167730655233</t>
+          <t>t-710310372985741313</t>
         </is>
       </c>
       <c r="B600" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C600" t="n">
         <v>1</v>
@@ -8240,7 +8240,7 @@
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>t-824425957838581760</t>
+          <t>t-728392912636149760</t>
         </is>
       </c>
       <c r="B601" t="n">
@@ -8253,7 +8253,7 @@
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>t-824537640233889792</t>
+          <t>t-777605888655761409</t>
         </is>
       </c>
       <c r="B602" t="n">
@@ -8266,20 +8266,20 @@
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>t-824596362859667456</t>
+          <t>t-778041943855026178</t>
         </is>
       </c>
       <c r="B603" t="n">
         <v>1</v>
       </c>
       <c r="C603" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>t-824596669597569025</t>
+          <t>t-778431677144018944</t>
         </is>
       </c>
       <c r="B604" t="n">
@@ -8292,11 +8292,11 @@
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>t-824814008108593152</t>
+          <t>t-820295860747542529</t>
         </is>
       </c>
       <c r="B605" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C605" t="n">
         <v>1</v>
@@ -8305,20 +8305,20 @@
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>t-824990518815842304</t>
+          <t>t-820993538456289280</t>
         </is>
       </c>
       <c r="B606" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C606" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>t-825140161293934594</t>
+          <t>t-533912579676975104</t>
         </is>
       </c>
       <c r="B607" t="n">
@@ -8331,7 +8331,7 @@
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>t-825322589002149888</t>
+          <t>t-545488523856338944</t>
         </is>
       </c>
       <c r="B608" t="n">
@@ -8344,7 +8344,7 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>t-825486203914842112</t>
+          <t>t-573022010348982272</t>
         </is>
       </c>
       <c r="B609" t="n">
@@ -8357,11 +8357,11 @@
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>t-831833976029454338</t>
+          <t>t-587184590302814208</t>
         </is>
       </c>
       <c r="B610" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C610" t="n">
         <v>1</v>
@@ -8370,11 +8370,11 @@
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>t-835120033412038656</t>
+          <t>t-587194258815221760</t>
         </is>
       </c>
       <c r="B611" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C611" t="n">
         <v>1</v>
@@ -8383,7 +8383,7 @@
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>t-854250685419986949</t>
+          <t>t-587194893052747777</t>
         </is>
       </c>
       <c r="B612" t="n">
@@ -8396,33 +8396,33 @@
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>t-854262837673246720</t>
+          <t>t-659219094017708032</t>
         </is>
       </c>
       <c r="B613" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C613" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>t-940565575226372102</t>
+          <t>t-666604346558271489</t>
         </is>
       </c>
       <c r="B614" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C614" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>t-940637216757477377</t>
+          <t>t-667233953934282752</t>
         </is>
       </c>
       <c r="B615" t="n">
@@ -8435,20 +8435,20 @@
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>t-994075228354510848</t>
+          <t>t-671487099355426816</t>
         </is>
       </c>
       <c r="B616" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C616" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>t-1031392016255647744</t>
+          <t>t-671928198360391680</t>
         </is>
       </c>
       <c r="B617" t="n">
@@ -8461,50 +8461,50 @@
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>t-762938358486052865</t>
+          <t>t-672328618379362304</t>
         </is>
       </c>
       <c r="B618" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C618" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>t-820295860747542529</t>
+          <t>t-673050773710839808</t>
         </is>
       </c>
       <c r="B619" t="n">
         <v>0</v>
       </c>
       <c r="C619" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>t-820993538456289280</t>
+          <t>t-736424760335179778</t>
         </is>
       </c>
       <c r="B620" t="n">
         <v>0</v>
       </c>
       <c r="C620" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>t-823758777857908736</t>
+          <t>t-764804167068024832</t>
         </is>
       </c>
       <c r="B621" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C621" t="n">
         <v>1</v>
@@ -8513,7 +8513,7 @@
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>t-823809561622695937</t>
+          <t>t-796319752176009216</t>
         </is>
       </c>
       <c r="B622" t="n">
@@ -8526,7 +8526,7 @@
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>t-823868915621052416</t>
+          <t>t-796346157156864001</t>
         </is>
       </c>
       <c r="B623" t="n">
@@ -8539,7 +8539,7 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>t-824113067696930816</t>
+          <t>t-796369433241403393</t>
         </is>
       </c>
       <c r="B624" t="n">
@@ -8552,7 +8552,7 @@
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>t-824154025864167424</t>
+          <t>t-796693709639168001</t>
         </is>
       </c>
       <c r="B625" t="n">
@@ -8565,33 +8565,33 @@
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>t-824160171534467072</t>
+          <t>t-797722245741223936</t>
         </is>
       </c>
       <c r="B626" t="n">
         <v>1</v>
       </c>
       <c r="C626" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>t-825053893184753664</t>
+          <t>t-797729987348418561</t>
         </is>
       </c>
       <c r="B627" t="n">
         <v>1</v>
       </c>
       <c r="C627" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>t-825136994833428480</t>
+          <t>t-797771440128860162</t>
         </is>
       </c>
       <c r="B628" t="n">
@@ -8604,11 +8604,11 @@
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>t-825930607427416064</t>
+          <t>t-797771478930366464</t>
         </is>
       </c>
       <c r="B629" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C629" t="n">
         <v>1</v>
@@ -8617,11 +8617,11 @@
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>t-871870603011043328</t>
+          <t>t-797792110535528448</t>
         </is>
       </c>
       <c r="B630" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C630" t="n">
         <v>1</v>
@@ -8630,7 +8630,7 @@
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>t-872126007855038464</t>
+          <t>t-798105876364029953</t>
         </is>
       </c>
       <c r="B631" t="n">
@@ -8643,33 +8643,33 @@
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>t-914680114595602432</t>
+          <t>t-836823983353909248</t>
         </is>
       </c>
       <c r="B632" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C632" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>t-922122902136172545</t>
+          <t>t-839825336552468480</t>
         </is>
       </c>
       <c r="B633" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C633" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>t-948796201708675072</t>
+          <t>t-912888084739641344</t>
         </is>
       </c>
       <c r="B634" t="n">
@@ -8682,7 +8682,7 @@
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>t-948886764244033537</t>
+          <t>t-913276391470227456</t>
         </is>
       </c>
       <c r="B635" t="n">
@@ -8695,20 +8695,20 @@
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>t-965395788435046400</t>
+          <t>t-924905228415193088</t>
         </is>
       </c>
       <c r="B636" t="n">
         <v>0</v>
       </c>
       <c r="C636" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>t-985916719981060097</t>
+          <t>t-965199790966415360</t>
         </is>
       </c>
       <c r="B637" t="n">
@@ -8721,11 +8721,11 @@
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>t-985984041508720641</t>
+          <t>t-976030387188137984</t>
         </is>
       </c>
       <c r="B638" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C638" t="n">
         <v>1</v>
@@ -8734,24 +8734,24 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>t-503088287381082112</t>
+          <t>t-976030855033319425</t>
         </is>
       </c>
       <c r="B639" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C639" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>t-527780384159703040</t>
+          <t>t-976037405776990208</t>
         </is>
       </c>
       <c r="B640" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C640" t="n">
         <v>1</v>
@@ -8760,7 +8760,7 @@
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>t-580217985706528769</t>
+          <t>t-987647411144220672</t>
         </is>
       </c>
       <c r="B641" t="n">
@@ -8773,11 +8773,11 @@
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>t-583500409458688000</t>
+          <t>t-1036192189947281408</t>
         </is>
       </c>
       <c r="B642" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C642" t="n">
         <v>1</v>
@@ -8786,20 +8786,20 @@
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>t-583500450495795200</t>
+          <t>t-508042249457139712</t>
         </is>
       </c>
       <c r="B643" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C643" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>t-583501741481594881</t>
+          <t>t-578162074741661696</t>
         </is>
       </c>
       <c r="B644" t="n">
@@ -8812,11 +8812,11 @@
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>t-583504251168497664</t>
+          <t>t-586217765666623488</t>
         </is>
       </c>
       <c r="B645" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C645" t="n">
         <v>1</v>
@@ -8825,24 +8825,24 @@
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>t-583504875067056129</t>
+          <t>t-783478326421704704</t>
         </is>
       </c>
       <c r="B646" t="n">
         <v>1</v>
       </c>
       <c r="C646" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>t-584246834618474497</t>
+          <t>t-839656521227091969</t>
         </is>
       </c>
       <c r="B647" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C647" t="n">
         <v>1</v>
@@ -8851,7 +8851,7 @@
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>t-605261202822807552</t>
+          <t>t-964120690952564737</t>
         </is>
       </c>
       <c r="B648" t="n">
@@ -8864,11 +8864,11 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>t-605672293654654976</t>
+          <t>t-1062500554134310912</t>
         </is>
       </c>
       <c r="B649" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C649" t="n">
         <v>1</v>
@@ -8877,7 +8877,7 @@
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>t-675871788564283392</t>
+          <t>t-555289784240054272</t>
         </is>
       </c>
       <c r="B650" t="n">
@@ -8890,7 +8890,7 @@
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>t-736424760335179778</t>
+          <t>t-555290912268750848</t>
         </is>
       </c>
       <c r="B651" t="n">
@@ -8903,20 +8903,20 @@
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>t-740813200766214144</t>
+          <t>t-555447424768954368</t>
         </is>
       </c>
       <c r="B652" t="n">
         <v>0</v>
       </c>
       <c r="C652" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>t-799522784040849408</t>
+          <t>t-621352736672473089</t>
         </is>
       </c>
       <c r="B653" t="n">
@@ -8929,33 +8929,33 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>t-807384780572459008</t>
+          <t>t-621526313216536576</t>
         </is>
       </c>
       <c r="B654" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C654" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>t-836823983353909248</t>
+          <t>t-621967424384925696</t>
         </is>
       </c>
       <c r="B655" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C655" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>t-839825336552468480</t>
+          <t>t-676067082081976320</t>
         </is>
       </c>
       <c r="B656" t="n">
@@ -8968,7 +8968,7 @@
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>t-960348165114273792</t>
+          <t>t-689784474884648961</t>
         </is>
       </c>
       <c r="B657" t="n">
@@ -8981,7 +8981,7 @@
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>t-965199790966415360</t>
+          <t>t-802829831633108992</t>
         </is>
       </c>
       <c r="B658" t="n">
@@ -8994,20 +8994,20 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>t-987647411144220672</t>
+          <t>t-853130130432176128</t>
         </is>
       </c>
       <c r="B659" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C659" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>t-508042249457139712</t>
+          <t>t-1000752833484881921</t>
         </is>
       </c>
       <c r="B660" t="n">
@@ -9020,20 +9020,20 @@
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>t-548367743385624577</t>
+          <t>t-1001352081465212928</t>
         </is>
       </c>
       <c r="B661" t="n">
         <v>1</v>
       </c>
       <c r="C661" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>t-756176490119647232</t>
+          <t>t-971295308981383168</t>
         </is>
       </c>
       <c r="B662" t="n">
@@ -9046,7 +9046,7 @@
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>t-783478326421704704</t>
+          <t>t-555323393890058240</t>
         </is>
       </c>
       <c r="B663" t="n">
@@ -9059,20 +9059,20 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>t-831995329318772736</t>
+          <t>t-555327376440053760</t>
         </is>
       </c>
       <c r="B664" t="n">
         <v>1</v>
       </c>
       <c r="C664" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>t-964120690952564737</t>
+          <t>t-801391859083988993</t>
         </is>
       </c>
       <c r="B665" t="n">
@@ -9085,7 +9085,7 @@
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>t-538727466139803648</t>
+          <t>t-983954928610697216</t>
         </is>
       </c>
       <c r="B666" t="n">
@@ -9098,7 +9098,7 @@
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>t-555289784240054272</t>
+          <t>t-545394272619331584</t>
         </is>
       </c>
       <c r="B667" t="n">
@@ -9111,7 +9111,7 @@
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>t-555290912268750848</t>
+          <t>t-817285829861093377</t>
         </is>
       </c>
       <c r="B668" t="n">
@@ -9124,20 +9124,20 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>t-555447424768954368</t>
+          <t>t-550823263941574657</t>
         </is>
       </c>
       <c r="B669" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C669" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>t-661588229892673536</t>
+          <t>t-557096941750743040</t>
         </is>
       </c>
       <c r="B670" t="n">
@@ -9150,7 +9150,7 @@
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>t-676067082081976320</t>
+          <t>t-668452855993511936</t>
         </is>
       </c>
       <c r="B671" t="n">
@@ -9163,7 +9163,7 @@
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>t-768634144851013633</t>
+          <t>t-681630649879543808</t>
         </is>
       </c>
       <c r="B672" t="n">
@@ -9176,7 +9176,7 @@
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>t-769506262551715840</t>
+          <t>t-803451448700780544</t>
         </is>
       </c>
       <c r="B673" t="n">
@@ -9189,7 +9189,7 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>t-1032843605826621440</t>
+          <t>t-803454039333556224</t>
         </is>
       </c>
       <c r="B674" t="n">
@@ -9202,11 +9202,11 @@
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>t-902843730587115520</t>
+          <t>t-803455995494027264</t>
         </is>
       </c>
       <c r="B675" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C675" t="n">
         <v>0</v>
@@ -9215,11 +9215,11 @@
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>t-525880451999617025</t>
+          <t>t-803466221962215424</t>
         </is>
       </c>
       <c r="B676" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C676" t="n">
         <v>0</v>
@@ -9228,11 +9228,11 @@
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>t-664089575191478272</t>
+          <t>t-803470959600467968</t>
         </is>
       </c>
       <c r="B677" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C677" t="n">
         <v>1</v>
@@ -9241,11 +9241,11 @@
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>t-832183739346063361</t>
+          <t>t-815040393884467200</t>
         </is>
       </c>
       <c r="B678" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C678" t="n">
         <v>1</v>
@@ -9254,7 +9254,7 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>t-534323907642142720</t>
+          <t>t-753418052503502848</t>
         </is>
       </c>
       <c r="B679" t="n">
@@ -9267,7 +9267,7 @@
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>t-558428892898131968</t>
+          <t>t-801652200724451332</t>
         </is>
       </c>
       <c r="B680" t="n">
@@ -9280,33 +9280,33 @@
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>t-558596887519850496</t>
+          <t>t-859771332908777474</t>
         </is>
       </c>
       <c r="B681" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C681" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>t-703773712068116482</t>
+          <t>t-965551093982769152</t>
         </is>
       </c>
       <c r="B682" t="n">
         <v>1</v>
       </c>
       <c r="C682" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>t-703855663269556224</t>
+          <t>t-823731915236708352</t>
         </is>
       </c>
       <c r="B683" t="n">
@@ -9319,7 +9319,7 @@
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>t-703940411761389571</t>
+          <t>t-930542567199997958</t>
         </is>
       </c>
       <c r="B684" t="n">
@@ -9332,7 +9332,7 @@
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>t-833843048253681665</t>
+          <t>t-796490215078711296</t>
         </is>
       </c>
       <c r="B685" t="n">
@@ -9345,7 +9345,7 @@
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>t-834648744150892546</t>
+          <t>t-824143990274588672</t>
         </is>
       </c>
       <c r="B686" t="n">
@@ -9358,7 +9358,7 @@
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>t-961453081543065600</t>
+          <t>t-993018034288705536</t>
         </is>
       </c>
       <c r="B687" t="n">
@@ -9371,7 +9371,7 @@
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>t-557096941750743040</t>
+          <t>t-814411097864159233</t>
         </is>
       </c>
       <c r="B688" t="n">
@@ -9384,7 +9384,7 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>t-798752071239409665</t>
+          <t>t-814414402203983872</t>
         </is>
       </c>
       <c r="B689" t="n">
@@ -9397,7 +9397,7 @@
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>t-536910791295778816</t>
+          <t>t-814417111921479680</t>
         </is>
       </c>
       <c r="B690" t="n">
@@ -9410,7 +9410,7 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>t-540747270207991808</t>
+          <t>t-814418757657296896</t>
         </is>
       </c>
       <c r="B691" t="n">
@@ -9423,7 +9423,7 @@
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>t-558414856756293634</t>
+          <t>t-814543705935736832</t>
         </is>
       </c>
       <c r="B692" t="n">
@@ -9436,7 +9436,7 @@
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>t-558416982677422081</t>
+          <t>t-558523740888109056</t>
         </is>
       </c>
       <c r="B693" t="n">
@@ -9449,11 +9449,11 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>t-636337860757483520</t>
+          <t>t-704474821959163905</t>
         </is>
       </c>
       <c r="B694" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C694" t="n">
         <v>1</v>
@@ -9462,20 +9462,20 @@
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>t-708854826730295296</t>
+          <t>t-832028212376985600</t>
         </is>
       </c>
       <c r="B695" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C695" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>t-723151439586013184</t>
+          <t>t-832064333504933888</t>
         </is>
       </c>
       <c r="B696" t="n">
@@ -9488,33 +9488,33 @@
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>t-745418927845453825</t>
+          <t>t-962542177514500096</t>
         </is>
       </c>
       <c r="B697" t="n">
         <v>0</v>
       </c>
       <c r="C697" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>t-764336375894306816</t>
+          <t>t-620194547256029184</t>
         </is>
       </c>
       <c r="B698" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C698" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>t-764417813717086208</t>
+          <t>t-563242661562576896</t>
         </is>
       </c>
       <c r="B699" t="n">
@@ -9527,7 +9527,7 @@
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>t-773077201063407617</t>
+          <t>t-564304402253508608</t>
         </is>
       </c>
       <c r="B700" t="n">
@@ -9540,11 +9540,11 @@
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>t-820620984231174145</t>
+          <t>t-698712295900229633</t>
         </is>
       </c>
       <c r="B701" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C701" t="n">
         <v>1</v>
@@ -9553,24 +9553,24 @@
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>t-607931728045338625</t>
+          <t>t-729180420265279489</t>
         </is>
       </c>
       <c r="B702" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C702" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>t-809685070428524546</t>
+          <t>t-729281192772542465</t>
         </is>
       </c>
       <c r="B703" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C703" t="n">
         <v>1</v>
@@ -9579,7 +9579,7 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>t-734985227739619329</t>
+          <t>t-741496457824374784</t>
         </is>
       </c>
       <c r="B704" t="n">
@@ -9592,37 +9592,37 @@
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>t-984973285124222976</t>
+          <t>t-870645957704265729</t>
         </is>
       </c>
       <c r="B705" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C705" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>t-801684041787273216</t>
+          <t>t-870651401311014912</t>
         </is>
       </c>
       <c r="B706" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C706" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>t-703883305427427329</t>
+          <t>t-605944627380817920</t>
         </is>
       </c>
       <c r="B707" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C707" t="n">
         <v>1</v>
@@ -9631,37 +9631,37 @@
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>t-704164134657486848</t>
+          <t>t-642718104875732992</t>
         </is>
       </c>
       <c r="B708" t="n">
         <v>1</v>
       </c>
       <c r="C708" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>t-941661763132579840</t>
+          <t>t-753509017096364033</t>
         </is>
       </c>
       <c r="B709" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C709" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>t-697434910303264773</t>
+          <t>t-998772384076320768</t>
         </is>
       </c>
       <c r="B710" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C710" t="n">
         <v>0</v>
@@ -9670,7 +9670,7 @@
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>t-940363500475465728</t>
+          <t>t-998825906733920257</t>
         </is>
       </c>
       <c r="B711" t="n">
@@ -9683,7 +9683,7 @@
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>t-870645957704265729</t>
+          <t>t-568062001399746560</t>
         </is>
       </c>
       <c r="B712" t="n">
@@ -9696,7 +9696,7 @@
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>t-870651401311014912</t>
+          <t>t-590978217546092544</t>
         </is>
       </c>
       <c r="B713" t="n">
@@ -9709,7 +9709,7 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>t-566151747232489472</t>
+          <t>t-639809419102937088</t>
         </is>
       </c>
       <c r="B714" t="n">
@@ -9722,20 +9722,20 @@
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>t-584288298249531392</t>
+          <t>t-877794875583934464</t>
         </is>
       </c>
       <c r="B715" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C715" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>t-677428252881784832</t>
+          <t>t-1062157078439968770</t>
         </is>
       </c>
       <c r="B716" t="n">
@@ -9748,7 +9748,7 @@
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>t-702366811925438465</t>
+          <t>t-691264325659422721</t>
         </is>
       </c>
       <c r="B717" t="n">
@@ -9761,20 +9761,20 @@
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>t-753509017096364033</t>
+          <t>t-691280497184362497</t>
         </is>
       </c>
       <c r="B718" t="n">
         <v>1</v>
       </c>
       <c r="C718" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>t-845628167855357953</t>
+          <t>t-785264263749308416</t>
         </is>
       </c>
       <c r="B719" t="n">
@@ -9787,11 +9787,11 @@
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>t-765452831297970176</t>
+          <t>t-785310124797669377</t>
         </is>
       </c>
       <c r="B720" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C720" t="n">
         <v>1</v>
@@ -9800,7 +9800,7 @@
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>t-833819761821757440</t>
+          <t>t-785316828025421824</t>
         </is>
       </c>
       <c r="B721" t="n">
@@ -9813,7 +9813,7 @@
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>t-883957999576002561</t>
+          <t>t-785325402981924866</t>
         </is>
       </c>
       <c r="B722" t="n">
@@ -9826,20 +9826,20 @@
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>t-685863458978443264</t>
+          <t>t-785347096031268864</t>
         </is>
       </c>
       <c r="B723" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C723" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>t-1062157078439968770</t>
+          <t>t-829258775257346048</t>
         </is>
       </c>
       <c r="B724" t="n">
@@ -9852,7 +9852,7 @@
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>t-829258775257346048</t>
+          <t>t-829280839464845312</t>
         </is>
       </c>
       <c r="B725" t="n">
@@ -9865,7 +9865,7 @@
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>t-829280839464845312</t>
+          <t>t-829291437292396544</t>
         </is>
       </c>
       <c r="B726" t="n">
@@ -9878,7 +9878,7 @@
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>t-829291437292396544</t>
+          <t>t-829294998201970688</t>
         </is>
       </c>
       <c r="B727" t="n">
@@ -9891,7 +9891,7 @@
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>t-829294998201970688</t>
+          <t>t-829512724761620480</t>
         </is>
       </c>
       <c r="B728" t="n">
@@ -9904,7 +9904,7 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>t-829512724761620480</t>
+          <t>t-745577469814538240</t>
         </is>
       </c>
       <c r="B729" t="n">
@@ -9917,7 +9917,7 @@
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>t-786434119072821249</t>
+          <t>t-964014223184375808</t>
         </is>
       </c>
       <c r="B730" t="n">
@@ -9930,7 +9930,7 @@
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>t-760724447745699841</t>
+          <t>t-833862725059031044</t>
         </is>
       </c>
       <c r="B731" t="n">
@@ -9943,7 +9943,7 @@
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>t-964014223184375808</t>
+          <t>t-833912149630078976</t>
         </is>
       </c>
       <c r="B732" t="n">
